--- a/validation/percentage_calculations.xlsx
+++ b/validation/percentage_calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoughton\Desktop\Github\saleos\validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osoro/GitHub/saleos/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300F4A10-9D30-4DD8-BDB2-2825727C88F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7EF4AD-E16F-614F-B8B0-CD4DA665DD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
+    <workbookView xWindow="9040" yWindow="500" windowWidth="59760" windowHeight="26600" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -241,13 +241,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -571,22 +570,22 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -605,14 +604,14 @@
       <c r="F1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -633,7 +632,7 @@
         <f t="shared" si="0"/>
         <v>68.739260000000002</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <v>6.6</v>
       </c>
       <c r="H2" s="13">
@@ -641,7 +640,7 @@
         <v>10.415039393939395</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -662,7 +661,7 @@
         <f t="shared" si="0"/>
         <v>117.50684000000001</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>6.6</v>
       </c>
       <c r="H3" s="13">
@@ -670,7 +669,7 @@
         <v>17.804066666666671</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -691,7 +690,7 @@
         <f t="shared" si="0"/>
         <v>29.84506</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>6.6</v>
       </c>
       <c r="H4" s="13">
@@ -699,7 +698,7 @@
         <v>4.5219787878787878</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
@@ -720,7 +719,7 @@
         <f t="shared" si="0"/>
         <v>295.01760000000002</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>6.6</v>
       </c>
       <c r="H5" s="13">
@@ -728,7 +727,7 @@
         <v>44.699636363636365</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -749,7 +748,7 @@
         <f t="shared" si="0"/>
         <v>141.95138</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>6.6</v>
       </c>
       <c r="H6" s="13">
@@ -757,7 +756,7 @@
         <v>21.50778484848485</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -778,7 +777,7 @@
         <f t="shared" si="0"/>
         <v>65.359360000000009</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>6.6</v>
       </c>
       <c r="H7" s="13">
@@ -786,14 +785,14 @@
         <v>9.9029333333333351</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C10" s="2"/>
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -812,7 +811,7 @@
         <v>198.19121610828111</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -831,7 +830,7 @@
         <v>100.66929038127567</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -843,17 +842,17 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" s="2"/>
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -872,7 +871,7 @@
         <v>64.48873613968189</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -884,7 +883,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -896,12 +895,12 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D20" s="2">
         <f>C17-C16</f>
         <v>1.3134627000000001</v>
@@ -911,7 +910,7 @@
         <v>77.045831693337746</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -919,7 +918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -935,7 +934,7 @@
         <v>5.5555555555555483</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -951,7 +950,7 @@
         <v>-38.888888888888886</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -959,7 +958,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>19</v>
       </c>
@@ -967,7 +966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -983,7 +982,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -999,7 +998,7 @@
         <v>-81.333333333333329</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -1007,12 +1006,12 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="16" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1032,7 +1031,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -1052,7 +1051,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -1060,12 +1059,12 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>23</v>
       </c>
@@ -1073,7 +1072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -1081,7 +1080,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -1096,32 +1095,32 @@
         <f>C42/B42*100</f>
         <v>225</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="18">
         <f>C42/B41*100</f>
         <v>69.230769230769226</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>18</v>
       </c>
       <c r="B43">
         <v>4.5</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="16">
         <f>B41-B43</f>
         <v>2</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="17">
         <f>C43/B43*100</f>
         <v>44.444444444444443</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="18">
         <f>C43/B41*100</f>
         <v>30.76923076923077</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C45">
         <f>(B41-B43)/B43*100</f>
         <v>44.444444444444443</v>

--- a/validation/percentage_calculations.xlsx
+++ b/validation/percentage_calculations.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osoro/GitHub/saleos/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7EF4AD-E16F-614F-B8B0-CD4DA665DD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB3A89C-7066-9845-B128-8F714ECB4A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9040" yWindow="500" windowWidth="59760" windowHeight="26600" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
+    <workbookView xWindow="45580" yWindow="1340" windowWidth="35520" windowHeight="21860" activeTab="1" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bonny" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$7</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="57">
   <si>
     <t>Kuiper</t>
   </si>
@@ -112,6 +113,102 @@
   </si>
   <si>
     <t>Constellation x is y% higher than starlink…</t>
+  </si>
+  <si>
+    <t>Emission Per Subscriber</t>
+  </si>
+  <si>
+    <t>Oneweb</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Worst Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> % higher than starlink</t>
+  </si>
+  <si>
+    <t>OneWeb Baseline</t>
+  </si>
+  <si>
+    <t>% higher than kuiper</t>
+  </si>
+  <si>
+    <t>OneWeb Worst Case</t>
+  </si>
+  <si>
+    <t>% higher than starlink</t>
+  </si>
+  <si>
+    <t>Kuiper Worst Case</t>
+  </si>
+  <si>
+    <t>% higher than OneWeb</t>
+  </si>
+  <si>
+    <t>Climate Change</t>
+  </si>
+  <si>
+    <t>Starlink Baseline</t>
+  </si>
+  <si>
+    <t>Kuiper Baseline</t>
+  </si>
+  <si>
+    <t>% is higher than Starlink</t>
+  </si>
+  <si>
+    <t>% is higher than OneWeb</t>
+  </si>
+  <si>
+    <t>Ozone Depletion</t>
+  </si>
+  <si>
+    <t>times higher than OneWeb</t>
+  </si>
+  <si>
+    <t>Mean Capacity</t>
+  </si>
+  <si>
+    <t>% higher than Kuiper</t>
+  </si>
+  <si>
+    <t>Monthly Traffic</t>
+  </si>
+  <si>
+    <t>Channel Capacity</t>
+  </si>
+  <si>
+    <t>Total Usable Constelation Capacity</t>
+  </si>
+  <si>
+    <t>% is higher than Kuiper</t>
+  </si>
+  <si>
+    <t>Subscribers per Area</t>
+  </si>
+  <si>
+    <t>Opex</t>
+  </si>
+  <si>
+    <t>Capex</t>
+  </si>
+  <si>
+    <t>TCO</t>
+  </si>
+  <si>
+    <t>Capex Per Subscriber</t>
+  </si>
+  <si>
+    <t>Opex Per Subscriber</t>
+  </si>
+  <si>
+    <t>TCO Per User</t>
+  </si>
+  <si>
+    <t>% higher than Starlink</t>
   </si>
 </sst>
 </file>
@@ -123,7 +220,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +240,25 @@
       <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,7 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -252,6 +368,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -569,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BFC319-8C7C-49CF-97BB-892370D01522}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1139,4 +1265,1007 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2B89D4-AFEF-394A-ABD6-6266674C454B}">
+  <dimension ref="A1:J83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0.47325719999999999</v>
+      </c>
+      <c r="C3">
+        <v>1.0364120000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0.70325230000000005</v>
+      </c>
+      <c r="C4">
+        <v>3.0182437000000002</v>
+      </c>
+      <c r="E4">
+        <f>((B5-B4)/B5)*100</f>
+        <v>50.166764525853459</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>1.4112114</v>
+      </c>
+      <c r="C5">
+        <v>1.7047810000000001</v>
+      </c>
+      <c r="E5">
+        <f>((B5-B3)/B5)*100</f>
+        <v>66.464471588027138</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <f>((C5-C3)/C5)*100</f>
+        <v>39.205563647178138</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5">
+        <f>((C4-C5)/C4)*100</f>
+        <v>43.517450231073127</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1.9</v>
+      </c>
+      <c r="C9">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1.8</v>
+      </c>
+      <c r="C10">
+        <v>7.5</v>
+      </c>
+      <c r="E10">
+        <f>((B9-B10)/B9)*100</f>
+        <v>5.2631578947368354</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10">
+        <f>((B10-B11)/B10)*100</f>
+        <v>38.888888888888886</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10">
+        <f>((C10-C9)/C10)*100</f>
+        <v>52</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C11">
+        <v>1.4</v>
+      </c>
+      <c r="I11">
+        <f>((C10-C11)/C10)*100</f>
+        <v>81.333333333333329</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E15">
+        <f>B16/B15</f>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>4.7</v>
+      </c>
+      <c r="C16">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>0.1</v>
+      </c>
+      <c r="C17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E17">
+        <f>B16/B17</f>
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>8.9942489999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>4.9742629999999997</v>
+      </c>
+      <c r="E22">
+        <f>((B21-B22)/B21)*100</f>
+        <v>44.695071261647307</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>2.9649800000000002</v>
+      </c>
+      <c r="E23">
+        <f>((B21-B23)/B23)*100</f>
+        <v>203.34939864687112</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>10.11853</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>5.5960460000000003</v>
+      </c>
+      <c r="E28">
+        <f>((B27-B28)/B27)*100</f>
+        <v>44.695069343076511</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>3.3356020000000002</v>
+      </c>
+      <c r="E29">
+        <f>((B27-B29)/B27)*100</f>
+        <v>67.034717493548968</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="E34">
+        <f>((B33-B34)/B33)*100</f>
+        <v>45.995423340961104</v>
+      </c>
+      <c r="F34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="E35">
+        <f>((B33-B35)/B33)*100</f>
+        <v>52.974828375286044</v>
+      </c>
+      <c r="F35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="20"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>20118103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>7943090</v>
+      </c>
+      <c r="E40">
+        <f>((B39-B40)/B39)*100</f>
+        <v>60.517698910279961</v>
+      </c>
+      <c r="F40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>1541789</v>
+      </c>
+      <c r="E41">
+        <f>((B39-B41)/B39)*100</f>
+        <v>92.336310237600443</v>
+      </c>
+      <c r="F41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="20"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>16</v>
+      </c>
+      <c r="E46">
+        <f>((B45-B46)/B45)*100</f>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="F46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <f>((B45-B47)/B45)*100</f>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="F47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="20"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>392800000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>352500000</v>
+      </c>
+      <c r="E52">
+        <f>((B51-B52)/B51)*100</f>
+        <v>10.259674134419553</v>
+      </c>
+      <c r="F52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>291800000</v>
+      </c>
+      <c r="E53">
+        <f>((B51-B53)/B51)*100</f>
+        <v>25.712830957230143</v>
+      </c>
+      <c r="F53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F56" s="20"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>474830000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>395600000</v>
+      </c>
+      <c r="E58">
+        <f>((B57-B58)/B57)*100</f>
+        <v>16.685971821494007</v>
+      </c>
+      <c r="F58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>352600000</v>
+      </c>
+      <c r="E59">
+        <f>((B57-B59)/B57)*100</f>
+        <v>25.741844449592488</v>
+      </c>
+      <c r="F59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" s="20"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>2425188759</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>2166480202</v>
+      </c>
+      <c r="E64">
+        <f>((B63-B64)/B63)*100</f>
+        <v>10.667563753127226</v>
+      </c>
+      <c r="F64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>1843817758</v>
+      </c>
+      <c r="E65">
+        <f>((B63-B65)/B63)*100</f>
+        <v>23.972195930832285</v>
+      </c>
+      <c r="F65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" s="20"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>143.70519999999999</v>
+      </c>
+      <c r="C69">
+        <v>36</v>
+      </c>
+      <c r="E69">
+        <f>((B71-B69)/B71)*100</f>
+        <v>71.231152031553705</v>
+      </c>
+      <c r="F69" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>178.334</v>
+      </c>
+      <c r="C70">
+        <v>65</v>
+      </c>
+      <c r="E70">
+        <f>((B71-B70)/B71)*100</f>
+        <v>64.298691114831598</v>
+      </c>
+      <c r="F70" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <v>499.51670000000001</v>
+      </c>
+      <c r="C71">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <v>118.8792</v>
+      </c>
+      <c r="C75">
+        <v>29</v>
+      </c>
+      <c r="E75">
+        <f>((B77-B75)/B77)*100</f>
+        <v>71.242379651040565</v>
+      </c>
+      <c r="F75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>158.90479999999999</v>
+      </c>
+      <c r="C76">
+        <v>57</v>
+      </c>
+      <c r="E76">
+        <f>((B77-B76)/B77)*100</f>
+        <v>61.559937230168714</v>
+      </c>
+      <c r="F76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77">
+        <v>413.38330000000002</v>
+      </c>
+      <c r="C77">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81">
+        <v>733.97249999999997</v>
+      </c>
+      <c r="C81">
+        <v>182</v>
+      </c>
+      <c r="E81">
+        <f>((B83-B81)/B83)*100</f>
+        <v>71.90078983943495</v>
+      </c>
+      <c r="F81" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>976.63549999999998</v>
+      </c>
+      <c r="C82">
+        <v>353</v>
+      </c>
+      <c r="E82">
+        <f>((B83-B82)/B83)*100</f>
+        <v>62.610743366040921</v>
+      </c>
+      <c r="F82" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <v>2612.0752000000002</v>
+      </c>
+      <c r="C83">
+        <v>801</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A79:J79"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A7:J7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/validation/percentage_calculations.xlsx
+++ b/validation/percentage_calculations.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoughton\Desktop\Github\saleos\validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osoro/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300F4A10-9D30-4DD8-BDB2-2825727C88F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7604F1-466E-4F45-BA39-13117FC67AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
+    <workbookView xWindow="15220" yWindow="500" windowWidth="35520" windowHeight="21860" activeTab="1" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bonny" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$7</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="57">
   <si>
     <t>Kuiper</t>
   </si>
@@ -112,6 +113,102 @@
   </si>
   <si>
     <t>Constellation x is y% higher than starlink…</t>
+  </si>
+  <si>
+    <t>Emission Per Subscriber</t>
+  </si>
+  <si>
+    <t>Oneweb</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Worst Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> % higher than starlink</t>
+  </si>
+  <si>
+    <t>OneWeb Baseline</t>
+  </si>
+  <si>
+    <t>% higher than kuiper</t>
+  </si>
+  <si>
+    <t>OneWeb Worst Case</t>
+  </si>
+  <si>
+    <t>% higher than starlink</t>
+  </si>
+  <si>
+    <t>Kuiper Worst Case</t>
+  </si>
+  <si>
+    <t>% higher than OneWeb</t>
+  </si>
+  <si>
+    <t>Climate Change</t>
+  </si>
+  <si>
+    <t>Starlink Baseline</t>
+  </si>
+  <si>
+    <t>Kuiper Baseline</t>
+  </si>
+  <si>
+    <t>% is higher than Starlink</t>
+  </si>
+  <si>
+    <t>% is higher than OneWeb</t>
+  </si>
+  <si>
+    <t>Ozone Depletion</t>
+  </si>
+  <si>
+    <t>times higher than OneWeb</t>
+  </si>
+  <si>
+    <t>Mean Capacity</t>
+  </si>
+  <si>
+    <t>% higher than Kuiper</t>
+  </si>
+  <si>
+    <t>Monthly Traffic</t>
+  </si>
+  <si>
+    <t>Channel Capacity</t>
+  </si>
+  <si>
+    <t>Total Usable Constelation Capacity</t>
+  </si>
+  <si>
+    <t>% is higher than Kuiper</t>
+  </si>
+  <si>
+    <t>Subscribers per Area</t>
+  </si>
+  <si>
+    <t>Opex</t>
+  </si>
+  <si>
+    <t>Capex</t>
+  </si>
+  <si>
+    <t>TCO</t>
+  </si>
+  <si>
+    <t>Capex Per Subscriber</t>
+  </si>
+  <si>
+    <t>Opex Per Subscriber</t>
+  </si>
+  <si>
+    <t>TCO Per User</t>
+  </si>
+  <si>
+    <t>% higher than Starlink</t>
   </si>
 </sst>
 </file>
@@ -123,7 +220,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +240,25 @@
       <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,7 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -241,18 +357,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -570,23 +695,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BFC319-8C7C-49CF-97BB-892370D01522}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -605,14 +730,14 @@
       <c r="F1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -633,7 +758,7 @@
         <f t="shared" si="0"/>
         <v>68.739260000000002</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <v>6.6</v>
       </c>
       <c r="H2" s="13">
@@ -641,7 +766,7 @@
         <v>10.415039393939395</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -662,7 +787,7 @@
         <f t="shared" si="0"/>
         <v>117.50684000000001</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>6.6</v>
       </c>
       <c r="H3" s="13">
@@ -670,7 +795,7 @@
         <v>17.804066666666671</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -691,7 +816,7 @@
         <f t="shared" si="0"/>
         <v>29.84506</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>6.6</v>
       </c>
       <c r="H4" s="13">
@@ -699,7 +824,7 @@
         <v>4.5219787878787878</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
@@ -720,7 +845,7 @@
         <f t="shared" si="0"/>
         <v>295.01760000000002</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>6.6</v>
       </c>
       <c r="H5" s="13">
@@ -728,7 +853,7 @@
         <v>44.699636363636365</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -749,7 +874,7 @@
         <f t="shared" si="0"/>
         <v>141.95138</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>6.6</v>
       </c>
       <c r="H6" s="13">
@@ -757,7 +882,7 @@
         <v>21.50778484848485</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -778,7 +903,7 @@
         <f t="shared" si="0"/>
         <v>65.359360000000009</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>6.6</v>
       </c>
       <c r="H7" s="13">
@@ -786,14 +911,14 @@
         <v>9.9029333333333351</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C10" s="2"/>
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -812,7 +937,7 @@
         <v>198.19121610828111</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -831,7 +956,7 @@
         <v>100.66929038127567</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -843,17 +968,17 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" s="2"/>
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -872,7 +997,7 @@
         <v>64.48873613968189</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -884,7 +1009,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -896,12 +1021,12 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D20" s="2">
         <f>C17-C16</f>
         <v>1.3134627000000001</v>
@@ -911,7 +1036,7 @@
         <v>77.045831693337746</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -919,7 +1044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -935,7 +1060,7 @@
         <v>5.5555555555555483</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -951,7 +1076,7 @@
         <v>-38.888888888888886</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -959,7 +1084,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>19</v>
       </c>
@@ -967,7 +1092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -983,7 +1108,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -999,7 +1124,7 @@
         <v>-81.333333333333329</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -1007,12 +1132,12 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="16" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1032,7 +1157,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -1052,7 +1177,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -1060,12 +1185,12 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>23</v>
       </c>
@@ -1073,7 +1198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -1081,7 +1206,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -1096,32 +1221,32 @@
         <f>C42/B42*100</f>
         <v>225</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="18">
         <f>C42/B41*100</f>
         <v>69.230769230769226</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>18</v>
       </c>
       <c r="B43">
         <v>4.5</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="16">
         <f>B41-B43</f>
         <v>2</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="17">
         <f>C43/B43*100</f>
         <v>44.444444444444443</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="18">
         <f>C43/B41*100</f>
         <v>30.76923076923077</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C45">
         <f>(B41-B43)/B43*100</f>
         <v>44.444444444444443</v>
@@ -1140,4 +1265,1007 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2B89D4-AFEF-394A-ABD6-6266674C454B}">
+  <dimension ref="A1:J83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0.47325719999999999</v>
+      </c>
+      <c r="C3">
+        <v>1.0364120000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0.70325230000000005</v>
+      </c>
+      <c r="C4">
+        <v>3.0182437000000002</v>
+      </c>
+      <c r="E4">
+        <f>((B5-B4)/B5)*100</f>
+        <v>50.166764525853459</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>1.4112114</v>
+      </c>
+      <c r="C5">
+        <v>1.7047810000000001</v>
+      </c>
+      <c r="E5">
+        <f>((B5-B3)/B5)*100</f>
+        <v>66.464471588027138</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <f>((C5-C3)/C5)*100</f>
+        <v>39.205563647178138</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5">
+        <f>((C4-C5)/C4)*100</f>
+        <v>43.517450231073127</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1.9</v>
+      </c>
+      <c r="C9">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1.8</v>
+      </c>
+      <c r="C10">
+        <v>7.5</v>
+      </c>
+      <c r="E10">
+        <f>((B9-B10)/B9)*100</f>
+        <v>5.2631578947368354</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10">
+        <f>((B10-B11)/B10)*100</f>
+        <v>38.888888888888886</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10">
+        <f>((C10-C9)/C10)*100</f>
+        <v>52</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C11">
+        <v>1.4</v>
+      </c>
+      <c r="I11">
+        <f>((C10-C11)/C10)*100</f>
+        <v>81.333333333333329</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E15">
+        <f>B16/B15</f>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>4.7</v>
+      </c>
+      <c r="C16">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>0.1</v>
+      </c>
+      <c r="C17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E17">
+        <f>B16/B17</f>
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>8.9942489999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>4.9742629999999997</v>
+      </c>
+      <c r="E22">
+        <f>((B21-B22)/B21)*100</f>
+        <v>44.695071261647307</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>2.9649800000000002</v>
+      </c>
+      <c r="E23">
+        <f>((B21-B23)/B23)*100</f>
+        <v>203.34939864687112</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>10.11853</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>5.5960460000000003</v>
+      </c>
+      <c r="E28">
+        <f>((B27-B28)/B27)*100</f>
+        <v>44.695069343076511</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>3.3356020000000002</v>
+      </c>
+      <c r="E29">
+        <f>((B27-B29)/B27)*100</f>
+        <v>67.034717493548968</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="E34">
+        <f>((B33-B34)/B33)*100</f>
+        <v>45.995423340961104</v>
+      </c>
+      <c r="F34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="E35">
+        <f>((B33-B35)/B33)*100</f>
+        <v>52.974828375286044</v>
+      </c>
+      <c r="F35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="20"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>20118103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>7943090</v>
+      </c>
+      <c r="E40">
+        <f>((B39-B40)/B39)*100</f>
+        <v>60.517698910279961</v>
+      </c>
+      <c r="F40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>1541789</v>
+      </c>
+      <c r="E41">
+        <f>((B39-B41)/B39)*100</f>
+        <v>92.336310237600443</v>
+      </c>
+      <c r="F41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="20"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>16</v>
+      </c>
+      <c r="E46">
+        <f>((B45-B46)/B45)*100</f>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="F46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <f>((B45-B47)/B45)*100</f>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="F47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="20"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>392800000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>352500000</v>
+      </c>
+      <c r="E52">
+        <f>((B51-B52)/B51)*100</f>
+        <v>10.259674134419553</v>
+      </c>
+      <c r="F52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>291800000</v>
+      </c>
+      <c r="E53">
+        <f>((B51-B53)/B51)*100</f>
+        <v>25.712830957230143</v>
+      </c>
+      <c r="F53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F56" s="20"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>474830000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>395600000</v>
+      </c>
+      <c r="E58">
+        <f>((B57-B58)/B57)*100</f>
+        <v>16.685971821494007</v>
+      </c>
+      <c r="F58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>352600000</v>
+      </c>
+      <c r="E59">
+        <f>((B57-B59)/B57)*100</f>
+        <v>25.741844449592488</v>
+      </c>
+      <c r="F59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" s="20"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>2425188759</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>2166480202</v>
+      </c>
+      <c r="E64">
+        <f>((B63-B64)/B63)*100</f>
+        <v>10.667563753127226</v>
+      </c>
+      <c r="F64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>1843817758</v>
+      </c>
+      <c r="E65">
+        <f>((B63-B65)/B63)*100</f>
+        <v>23.972195930832285</v>
+      </c>
+      <c r="F65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" s="20"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>143.70519999999999</v>
+      </c>
+      <c r="C69">
+        <v>36</v>
+      </c>
+      <c r="E69">
+        <f>((B71-B69)/B71)*100</f>
+        <v>71.231152031553705</v>
+      </c>
+      <c r="F69" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>178.334</v>
+      </c>
+      <c r="C70">
+        <v>65</v>
+      </c>
+      <c r="E70">
+        <f>((B71-B70)/B71)*100</f>
+        <v>64.298691114831598</v>
+      </c>
+      <c r="F70" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <v>499.51670000000001</v>
+      </c>
+      <c r="C71">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <v>118.8792</v>
+      </c>
+      <c r="C75">
+        <v>29</v>
+      </c>
+      <c r="E75">
+        <f>((B77-B75)/B77)*100</f>
+        <v>71.242379651040565</v>
+      </c>
+      <c r="F75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>158.90479999999999</v>
+      </c>
+      <c r="C76">
+        <v>57</v>
+      </c>
+      <c r="E76">
+        <f>((B77-B76)/B77)*100</f>
+        <v>61.559937230168714</v>
+      </c>
+      <c r="F76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77">
+        <v>413.38330000000002</v>
+      </c>
+      <c r="C77">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81">
+        <v>733.97249999999997</v>
+      </c>
+      <c r="C81">
+        <v>182</v>
+      </c>
+      <c r="E81">
+        <f>((B83-B81)/B83)*100</f>
+        <v>71.90078983943495</v>
+      </c>
+      <c r="F81" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>976.63549999999998</v>
+      </c>
+      <c r="C82">
+        <v>353</v>
+      </c>
+      <c r="E82">
+        <f>((B83-B82)/B83)*100</f>
+        <v>62.610743366040921</v>
+      </c>
+      <c r="F82" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <v>2612.0752000000002</v>
+      </c>
+      <c r="C83">
+        <v>801</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A79:J79"/>
+    <mergeCell ref="E68:F68"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/validation/percentage_calculations.xlsx
+++ b/validation/percentage_calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osoro/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoughton\Desktop\Github\saleos\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7604F1-466E-4F45-BA39-13117FC67AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9634895E-9C8B-4696-9629-0217A1DE1842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15220" yWindow="500" windowWidth="35520" windowHeight="21860" activeTab="1" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="60">
   <si>
     <t>Kuiper</t>
   </si>
@@ -209,6 +209,15 @@
   </si>
   <si>
     <t>% higher than Starlink</t>
+  </si>
+  <si>
+    <t>Social Cost of Carbon (US$) (baseline)</t>
+  </si>
+  <si>
+    <t>Social Cost of Carbon (US$) (worst-case)</t>
+  </si>
+  <si>
+    <t>Insert per user SCC estimates</t>
   </si>
 </sst>
 </file>
@@ -220,7 +229,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +265,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -334,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -369,15 +386,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -695,23 +713,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BFC319-8C7C-49CF-97BB-892370D01522}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -737,7 +755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -762,11 +780,11 @@
         <v>6.6</v>
       </c>
       <c r="H2" s="13">
-        <f t="shared" ref="H2:H7" si="1">F2/G2</f>
-        <v>10.415039393939395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <f>E2/G2</f>
+        <v>21.310675757575762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -791,11 +809,11 @@
         <v>6.6</v>
       </c>
       <c r="H3" s="13">
-        <f t="shared" si="1"/>
-        <v>17.804066666666671</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H3:H7" si="1">E3/G3</f>
+        <v>42.763981818181819</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -809,7 +827,7 @@
         <v>0.14922530000000001</v>
       </c>
       <c r="E4" s="13">
-        <f t="shared" si="0"/>
+        <f>C4*1000/5</f>
         <v>94.651440000000008</v>
       </c>
       <c r="F4" s="13">
@@ -821,10 +839,10 @@
       </c>
       <c r="H4" s="13">
         <f t="shared" si="1"/>
-        <v>4.5219787878787878</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14.341127272727274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
@@ -850,10 +868,10 @@
       </c>
       <c r="H5" s="13">
         <f t="shared" si="1"/>
-        <v>44.699636363636365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>91.4619303030303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -879,10 +897,10 @@
       </c>
       <c r="H6" s="13">
         <f t="shared" si="1"/>
-        <v>21.50778484848485</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>51.660030303030311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -908,17 +926,17 @@
       </c>
       <c r="H7" s="13">
         <f t="shared" si="1"/>
-        <v>9.9029333333333351</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>31.406424242424244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1"/>
+    <row r="10" spans="1:8">
       <c r="C10" s="2"/>
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -936,8 +954,9 @@
         <f>D11/C13*100</f>
         <v>198.19121610828111</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -955,8 +974,9 @@
         <f>D12/C12*100</f>
         <v>100.66929038127567</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -967,18 +987,21 @@
         <v>0.47325719999999999</v>
       </c>
       <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1">
       <c r="C14" s="2"/>
       <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="C15" s="2"/>
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -996,8 +1019,9 @@
         <f>D16/C18*100</f>
         <v>64.48873613968189</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1008,8 +1032,9 @@
         <v>3.0182437000000002</v>
       </c>
       <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1020,13 +1045,14 @@
         <v>1.0364120000000001</v>
       </c>
       <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" thickBot="1">
       <c r="D20" s="2">
         <f>C17-C16</f>
         <v>1.3134627000000001</v>
@@ -1036,15 +1062,21 @@
         <v>77.045831693337746</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1059,8 +1091,13 @@
         <f>(B23-B25)/B25*100</f>
         <v>5.5555555555555483</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G23" s="13">
+        <f>B23*185</f>
+        <v>351.5</v>
+      </c>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1075,24 +1112,40 @@
         <f>(B24-B25)/B25*100</f>
         <v>-38.888888888888886</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G24" s="13">
+        <f t="shared" ref="G24:G25" si="2">B24*185</f>
+        <v>203.50000000000003</v>
+      </c>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>18</v>
       </c>
       <c r="B25">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G25" s="13">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="B28" t="s">
         <v>19</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1107,8 +1160,13 @@
         <f>(B29-B31)/B31*100</f>
         <v>-52</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G29" s="13">
+        <f>B29*185</f>
+        <v>666</v>
+      </c>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1123,21 +1181,31 @@
         <f>(B30-B31)/B31*100</f>
         <v>-81.333333333333329</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G30" s="13">
+        <f t="shared" ref="G30:G31" si="3">B30*185</f>
+        <v>259</v>
+      </c>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>18</v>
       </c>
       <c r="B31">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G31" s="13">
+        <f t="shared" si="3"/>
+        <v>1387.5</v>
+      </c>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="B34" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1157,7 +1225,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -1177,7 +1245,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -1185,12 +1253,12 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="B40" t="s">
         <v>23</v>
       </c>
@@ -1198,7 +1266,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -1206,7 +1274,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -1226,7 +1294,7 @@
         <v>69.230769230769226</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -1246,8 +1314,8 @@
         <v>30.76923076923077</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C45">
+    <row r="45" spans="1:5">
+      <c r="C45" s="17">
         <f>(B41-B43)/B43*100</f>
         <v>44.444444444444443</v>
       </c>
@@ -1271,53 +1339,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2B89D4-AFEF-394A-ABD6-6266674C454B}">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="20"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1328,7 +1396,7 @@
         <v>1.0364120000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1346,7 +1414,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1378,41 +1446,41 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20" t="s">
+      <c r="H8" s="21"/>
+      <c r="I8" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1423,7 +1491,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1455,7 +1523,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1473,33 +1541,33 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:10">
+      <c r="A13" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1514,7 +1582,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1525,7 +1593,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1543,30 +1611,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
+    <row r="19" spans="1:10">
+      <c r="A19" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1574,7 +1642,7 @@
         <v>8.9942489999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1589,7 +1657,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1604,30 +1672,30 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
+    <row r="25" spans="1:10">
+      <c r="A25" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1635,7 +1703,7 @@
         <v>10.11853</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +1718,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1665,30 +1733,30 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
+    <row r="31" spans="1:10">
+      <c r="A31" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="B32" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1696,7 +1764,7 @@
         <v>0.874</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1711,7 +1779,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1726,30 +1794,30 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
+    <row r="37" spans="1:10">
+      <c r="A37" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="1:10">
       <c r="B38" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="20"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1757,7 +1825,7 @@
         <v>20118103</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1772,7 +1840,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1787,30 +1855,30 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="22" t="s">
+    <row r="43" spans="1:10">
+      <c r="A43" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="1:10">
       <c r="B44" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="20"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1818,7 +1886,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -1833,7 +1901,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -1848,30 +1916,30 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="s">
+    <row r="49" spans="1:10">
+      <c r="A49" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+    </row>
+    <row r="50" spans="1:10">
       <c r="B50" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F50" s="20"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1879,7 +1947,7 @@
         <v>392800000</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -1894,7 +1962,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -1909,30 +1977,30 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="21" t="s">
+    <row r="55" spans="1:10">
+      <c r="A55" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+    </row>
+    <row r="56" spans="1:10">
       <c r="B56" t="s">
         <v>27</v>
       </c>
-      <c r="E56" s="20" t="s">
+      <c r="E56" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F56" s="20"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1940,7 +2008,7 @@
         <v>474830000</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -1955,7 +2023,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -1970,30 +2038,30 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="22" t="s">
+    <row r="61" spans="1:10">
+      <c r="A61" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="1:10">
       <c r="B62" t="s">
         <v>27</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F62" s="20"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="19" t="s">
         <v>4</v>
       </c>
@@ -2001,7 +2069,7 @@
         <v>2425188759</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
       <c r="A64" s="19" t="s">
         <v>0</v>
       </c>
@@ -2016,7 +2084,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65" s="19" t="s">
         <v>3</v>
       </c>
@@ -2031,30 +2099,30 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="21" t="s">
+    <row r="67" spans="1:10">
+      <c r="A67" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+    </row>
+    <row r="68" spans="1:10">
       <c r="B68" t="s">
         <v>27</v>
       </c>
-      <c r="E68" s="20" t="s">
+      <c r="E68" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F68" s="20"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F68" s="21"/>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="19" t="s">
         <v>4</v>
       </c>
@@ -2072,7 +2140,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" s="19" t="s">
         <v>0</v>
       </c>
@@ -2090,7 +2158,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71" s="19" t="s">
         <v>3</v>
       </c>
@@ -2101,26 +2169,26 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="21" t="s">
+    <row r="73" spans="1:10">
+      <c r="A73" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+    </row>
+    <row r="74" spans="1:10">
       <c r="B74" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10">
       <c r="A75" s="19" t="s">
         <v>4</v>
       </c>
@@ -2138,7 +2206,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10">
       <c r="A76" s="19" t="s">
         <v>0</v>
       </c>
@@ -2156,7 +2224,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10">
       <c r="A77" s="19" t="s">
         <v>3</v>
       </c>
@@ -2167,26 +2235,26 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="21" t="s">
+    <row r="79" spans="1:10">
+      <c r="A79" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
-      <c r="J79" s="21"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+    </row>
+    <row r="80" spans="1:10">
       <c r="B80" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" s="19" t="s">
         <v>4</v>
       </c>
@@ -2204,7 +2272,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" s="19" t="s">
         <v>0</v>
       </c>
@@ -2222,7 +2290,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" s="19" t="s">
         <v>3</v>
       </c>
@@ -2235,17 +2303,11 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A79:J79"/>
+    <mergeCell ref="E68:F68"/>
     <mergeCell ref="A61:J61"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E56:F56"/>
@@ -2260,11 +2322,17 @@
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="A49:J49"/>
     <mergeCell ref="A55:J55"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A79:J79"/>
-    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/validation/percentage_calculations.xlsx
+++ b/validation/percentage_calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoughton\Desktop\Github\saleos\validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osoro/GitHub/saleos/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9634895E-9C8B-4696-9629-0217A1DE1842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A37FA2A-AECF-D146-AEAA-E35E4FA336EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30940" windowHeight="26440" activeTab="1" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="65">
   <si>
     <t>Kuiper</t>
   </si>
@@ -218,6 +218,21 @@
   </si>
   <si>
     <t>Insert per user SCC estimates</t>
+  </si>
+  <si>
+    <t>Total Social Cost of Carbon</t>
+  </si>
+  <si>
+    <t>Baseline (US$ M)</t>
+  </si>
+  <si>
+    <t>Worst Case (US$ M)</t>
+  </si>
+  <si>
+    <t>Per Subscriber Social Cost</t>
+  </si>
+  <si>
+    <t>Baseline (US$)</t>
   </si>
 </sst>
 </file>
@@ -229,7 +244,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +401,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -395,7 +411,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -713,23 +728,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BFC319-8C7C-49CF-97BB-892370D01522}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -755,7 +770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -784,7 +799,7 @@
         <v>21.310675757575762</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -813,7 +828,7 @@
         <v>42.763981818181819</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -842,7 +857,7 @@
         <v>14.341127272727274</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
@@ -871,7 +886,7 @@
         <v>91.4619303030303</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -900,7 +915,7 @@
         <v>51.660030303030311</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -929,14 +944,14 @@
         <v>31.406424242424244</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1"/>
-    <row r="10" spans="1:8">
+    <row r="9" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C10" s="2"/>
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -956,7 +971,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1">
+    <row r="12" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -976,7 +991,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -989,19 +1004,19 @@
       <c r="E13" s="6"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="E14" s="6"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" s="2"/>
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1">
+    <row r="16" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1021,7 +1036,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1034,7 +1049,7 @@
       <c r="E17" s="7"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1">
+    <row r="18" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1047,12 +1062,12 @@
       <c r="E18" s="6"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1">
+    <row r="20" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D20" s="2">
         <f>C17-C16</f>
         <v>1.3134627000000001</v>
@@ -1062,7 +1077,7 @@
         <v>77.045831693337746</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -1072,11 +1087,11 @@
       <c r="G22" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1095,9 +1110,11 @@
         <f>B23*185</f>
         <v>351.5</v>
       </c>
-      <c r="H23" s="23"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="H23">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1116,9 +1133,11 @@
         <f t="shared" ref="G24:G25" si="2">B24*185</f>
         <v>203.50000000000003</v>
       </c>
-      <c r="H24" s="23"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="H24">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -1129,9 +1148,11 @@
         <f t="shared" si="2"/>
         <v>333</v>
       </c>
-      <c r="H25" s="23"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="H25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>19</v>
       </c>
@@ -1141,11 +1162,11 @@
       <c r="G28" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1164,9 +1185,11 @@
         <f>B29*185</f>
         <v>666</v>
       </c>
-      <c r="H29" s="23"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="H29">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1185,9 +1208,11 @@
         <f t="shared" ref="G30:G31" si="3">B30*185</f>
         <v>259</v>
       </c>
-      <c r="H30" s="23"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="H30">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -1198,14 +1223,16 @@
         <f t="shared" si="3"/>
         <v>1387.5</v>
       </c>
-      <c r="H31" s="23"/>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="H31">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1225,7 +1252,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -1245,7 +1272,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -1253,12 +1280,12 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>23</v>
       </c>
@@ -1266,7 +1293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -1274,7 +1301,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -1294,7 +1321,7 @@
         <v>69.230769230769226</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -1314,7 +1341,7 @@
         <v>30.76923076923077</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C45" s="17">
         <f>(B41-B43)/B43*100</f>
         <v>44.444444444444443</v>
@@ -1337,55 +1364,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2B89D4-AFEF-394A-ABD6-6266674C454B}">
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1396,7 +1424,7 @@
         <v>1.0364120000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1414,7 +1442,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1446,41 +1474,41 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21" t="s">
+      <c r="F8" s="22"/>
+      <c r="G8" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21" t="s">
+      <c r="H8" s="22"/>
+      <c r="I8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1491,7 +1519,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1523,7 +1551,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1541,33 +1569,33 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="21"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1582,7 +1610,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1593,7 +1621,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1611,30 +1639,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1642,7 +1670,7 @@
         <v>8.9942489999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +1685,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1672,30 +1700,30 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="20" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1703,7 +1731,7 @@
         <v>10.11853</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1718,7 +1746,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1733,30 +1761,30 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="20" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1764,7 +1792,7 @@
         <v>0.874</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1779,7 +1807,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1794,30 +1822,30 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="20" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1825,7 +1853,7 @@
         <v>20118103</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1840,7 +1868,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1855,30 +1883,30 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="20" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1886,7 +1914,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -1901,7 +1929,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -1916,30 +1944,30 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="22" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="E50" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F50" s="21"/>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="F50" s="22"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1947,7 +1975,7 @@
         <v>392800000</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -1962,7 +1990,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -1977,30 +2005,30 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="22" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>27</v>
       </c>
-      <c r="E56" s="21" t="s">
+      <c r="E56" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F56" s="21"/>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="F56" s="22"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -2008,7 +2036,7 @@
         <v>474830000</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2023,7 +2051,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -2038,30 +2066,30 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="20" t="s">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>27</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="E62" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="F62" s="22"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
         <v>4</v>
       </c>
@@ -2069,7 +2097,7 @@
         <v>2425188759</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
         <v>0</v>
       </c>
@@ -2084,7 +2112,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
         <v>3</v>
       </c>
@@ -2099,30 +2127,30 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="22" t="s">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>27</v>
       </c>
-      <c r="E68" s="21" t="s">
+      <c r="E68" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F68" s="21"/>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="F68" s="22"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
         <v>4</v>
       </c>
@@ -2140,7 +2168,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
         <v>0</v>
       </c>
@@ -2158,7 +2186,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
         <v>3</v>
       </c>
@@ -2169,26 +2197,26 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="22" t="s">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
         <v>4</v>
       </c>
@@ -2206,7 +2234,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
         <v>0</v>
       </c>
@@ -2224,7 +2252,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
         <v>3</v>
       </c>
@@ -2235,26 +2263,26 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="22" t="s">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
         <v>4</v>
       </c>
@@ -2272,7 +2300,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="19" t="s">
         <v>0</v>
       </c>
@@ -2290,7 +2318,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="19" t="s">
         <v>3</v>
       </c>
@@ -2301,13 +2329,164 @@
         <v>801</v>
       </c>
     </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>61</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F85" s="22"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <v>354</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>325</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88">
+        <v>209</v>
+      </c>
+      <c r="E88" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F88">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F91" s="22"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92">
+        <v>101</v>
+      </c>
+      <c r="E92" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>130</v>
+      </c>
+      <c r="E93" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94">
+        <v>261</v>
+      </c>
+      <c r="E94" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>315</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="34">
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="A55:J55"/>
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A73:J73"/>
     <mergeCell ref="A79:J79"/>
     <mergeCell ref="E68:F68"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A84:J84"/>
+    <mergeCell ref="A90:J90"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A61:J61"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E56:F56"/>
@@ -2316,23 +2495,6 @@
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="E32:F32"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/validation/percentage_calculations.xlsx
+++ b/validation/percentage_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bonface\Documents\GitHub\saleos\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8ED0CE-1CB9-49E1-BC22-67FCC4FADED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80842B0-18EE-40B8-AF7B-4B788BA62360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="720" windowWidth="17415" windowHeight="9915" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
+    <workbookView xWindow="31050" yWindow="1890" windowWidth="12150" windowHeight="10830" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics validation" sheetId="2" r:id="rId1"/>
@@ -245,6 +245,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -257,7 +258,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2B89D4-AFEF-394A-ABD6-6266674C454B}">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -593,18 +593,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -615,18 +615,18 @@
         <v>6</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -708,7 +708,7 @@
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="7">
         <f>((C6-C3)/C6)*100</f>
         <v>-206.0528559249787</v>
       </c>
@@ -724,18 +724,18 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -746,18 +746,18 @@
         <v>6</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7" t="s">
+      <c r="H9" s="8"/>
+      <c r="I9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -834,18 +834,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
@@ -856,10 +856,10 @@
         <v>6</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -929,18 +929,18 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
@@ -949,10 +949,10 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -1001,18 +1001,18 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
@@ -1021,10 +1021,10 @@
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -1073,18 +1073,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
@@ -1093,17 +1093,17 @@
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B35" s="3">
-        <v>0.874</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1115,13 +1115,13 @@
         <v>0</v>
       </c>
       <c r="B36" s="3">
-        <v>0.47199999999999998</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3">
         <f>((B35-B36)/B35)*100</f>
-        <v>45.995423340961104</v>
+        <v>-4.315196998123831</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>22</v>
@@ -1132,31 +1132,31 @@
         <v>1</v>
       </c>
       <c r="B37" s="3">
-        <v>0.41099999999999998</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3">
         <f>((B35-B37)/B35)*100</f>
-        <v>52.974828375286044</v>
+        <v>-2.0637898686679192</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
@@ -1165,17 +1165,17 @@
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="7"/>
+      <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="3">
-        <v>20118103</v>
+        <v>36792055</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="B42" s="3">
-        <v>7943090</v>
+        <v>28078905</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3">
         <f>((B41-B42)/B41)*100</f>
-        <v>60.517698910279961</v>
+        <v>23.682150942642373</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>26</v>
@@ -1204,31 +1204,31 @@
         <v>1</v>
       </c>
       <c r="B43" s="3">
-        <v>1541789</v>
+        <v>2289712</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3">
         <f>((B41-B43)/B41)*100</f>
-        <v>92.336310237600443</v>
+        <v>93.776612912760655</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
@@ -1237,10 +1237,10 @@
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="7"/>
+      <c r="F46" s="8"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
@@ -1289,18 +1289,18 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
@@ -1309,17 +1309,17 @@
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="7"/>
+      <c r="F52" s="8"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B53" s="3">
-        <v>392800000</v>
+        <v>123</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -1331,13 +1331,13 @@
         <v>0</v>
       </c>
       <c r="B54" s="3">
-        <v>352500000</v>
+        <v>125</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3">
         <f>((B53-B54)/B53)*100</f>
-        <v>10.259674134419553</v>
+        <v>-1.6260162601626018</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>22</v>
@@ -1348,13 +1348,13 @@
         <v>1</v>
       </c>
       <c r="B55" s="3">
-        <v>291800000</v>
+        <v>106</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3">
         <f>((B53-B55)/B53)*100</f>
-        <v>25.712830957230143</v>
+        <v>13.821138211382115</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>13</v>
@@ -1373,18 +1373,18 @@
       <c r="J56" s="6"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="7"/>
+      <c r="F58" s="8"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B59" s="3">
-        <v>474830000</v>
+        <v>475130000</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="B60" s="3">
-        <v>395600000</v>
+        <v>395900000</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3">
         <f>((B59-B60)/B59)*100</f>
-        <v>16.685971821494007</v>
+        <v>16.675436196409404</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>22</v>
@@ -1432,31 +1432,31 @@
         <v>1</v>
       </c>
       <c r="B61" s="3">
-        <v>352600000</v>
+        <v>352900000</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3">
         <f>((B59-B61)/B59)*100</f>
-        <v>25.741844449592488</v>
+        <v>25.725590890914063</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
@@ -1465,10 +1465,10 @@
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="7"/>
+      <c r="F64" s="8"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
@@ -1479,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="B65" s="3">
-        <v>2425188759</v>
+        <v>1198</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -1491,13 +1491,13 @@
         <v>0</v>
       </c>
       <c r="B66" s="3">
-        <v>2166480202</v>
+        <v>1132</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3">
         <f>((B65-B66)/B65)*100</f>
-        <v>10.667563753127226</v>
+        <v>5.5091819699499167</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>22</v>
@@ -1508,31 +1508,31 @@
         <v>1</v>
       </c>
       <c r="B67" s="3">
-        <v>1843817758</v>
+        <v>997</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3">
         <f>((B65-B67)/B65)*100</f>
-        <v>23.972195930832285</v>
+        <v>16.7779632721202</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
@@ -1541,10 +1541,10 @@
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F70" s="7"/>
+      <c r="F70" s="8"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
@@ -1603,18 +1603,18 @@
       <c r="F73" s="3"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
@@ -1635,7 +1635,7 @@
         <v>2</v>
       </c>
       <c r="B77" s="3">
-        <v>118.8792</v>
+        <v>37</v>
       </c>
       <c r="C77" s="3">
         <v>29</v>
@@ -1643,7 +1643,7 @@
       <c r="D77" s="3"/>
       <c r="E77" s="3">
         <f>((B79-B77)/B79)*100</f>
-        <v>71.242379651040565</v>
+        <v>75.167785234899327</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>34</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="B78" s="3">
-        <v>158.90479999999999</v>
+        <v>56</v>
       </c>
       <c r="C78" s="3">
         <v>57</v>
@@ -1662,7 +1662,7 @@
       <c r="D78" s="3"/>
       <c r="E78" s="3">
         <f>((B79-B78)/B79)*100</f>
-        <v>61.559937230168714</v>
+        <v>62.416107382550337</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>22</v>
@@ -1673,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="B79" s="3">
-        <v>413.38330000000002</v>
+        <v>149</v>
       </c>
       <c r="C79" s="3">
         <v>125</v>
@@ -1683,18 +1683,18 @@
       <c r="F79" s="3"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
@@ -1715,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="B83" s="3">
-        <v>733.97249999999997</v>
+        <v>363</v>
       </c>
       <c r="C83" s="3">
         <v>182</v>
@@ -1723,7 +1723,7 @@
       <c r="D83" s="3"/>
       <c r="E83" s="3">
         <f>((B85-B83)/B85)*100</f>
-        <v>71.90078983943495</v>
+        <v>74.309978768577494</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>34</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="B84" s="3">
-        <v>976.63549999999998</v>
+        <v>510</v>
       </c>
       <c r="C84" s="3">
         <v>353</v>
@@ -1742,7 +1742,7 @@
       <c r="D84" s="3"/>
       <c r="E84" s="3">
         <f>((B85-B84)/B85)*100</f>
-        <v>62.610743366040921</v>
+        <v>63.906581740976641</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>22</v>
@@ -1753,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="B85" s="3">
-        <v>2612.0752000000002</v>
+        <v>1413</v>
       </c>
       <c r="C85" s="3">
         <v>801</v>
@@ -1766,18 +1766,18 @@
       <c r="A86" s="2"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
@@ -1786,10 +1786,10 @@
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F88" s="7"/>
+      <c r="F88" s="8"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
@@ -1844,18 +1844,18 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
@@ -1864,10 +1864,10 @@
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
-      <c r="E94" s="7" t="s">
+      <c r="E94" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F94" s="7"/>
+      <c r="F94" s="8"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
@@ -1923,28 +1923,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A75:J75"/>
-    <mergeCell ref="A81:J81"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="A87:J87"/>
-    <mergeCell ref="A93:J93"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="E15:F15"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="E58:F58"/>
     <mergeCell ref="E22:F22"/>
@@ -1957,6 +1935,28 @@
     <mergeCell ref="A45:J45"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A81:J81"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="A87:J87"/>
+    <mergeCell ref="A93:J93"/>
+    <mergeCell ref="A63:J63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/validation/percentage_calculations.xlsx
+++ b/validation/percentage_calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bonface\Documents\GitHub\saleos\validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bosoro/Documents/GitHub/saleos/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80842B0-18EE-40B8-AF7B-4B788BA62360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A751E16F-8E9F-0948-BC81-B4B2804B0069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31050" yWindow="1890" windowWidth="12150" windowHeight="10830" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
+    <workbookView xWindow="38520" yWindow="1180" windowWidth="30380" windowHeight="21000" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics validation" sheetId="2" r:id="rId1"/>
@@ -574,25 +574,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2B89D4-AFEF-394A-ABD6-6266674C454B}">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1"/>
-    <col min="10" max="10" width="22.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.5" style="1"/>
+    <col min="2" max="2" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5" style="1"/>
+    <col min="5" max="5" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1"/>
+    <col min="10" max="10" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
@@ -606,7 +606,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -628,15 +628,15 @@
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>0.1341</v>
+        <v>0.93859720000000002</v>
       </c>
       <c r="C3" s="3">
-        <v>0.25130000000000002</v>
+        <v>1.7592140999999999</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -646,20 +646,20 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3">
-        <v>0.1152</v>
+        <v>1.3784795000000001</v>
       </c>
       <c r="C4" s="3">
-        <v>0.29160000000000003</v>
+        <v>3.0768843000000001</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
         <f>((B6-B4)/B6)*100</f>
-        <v>-107.45542949756886</v>
+        <v>-18.198237641069355</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>9</v>
@@ -669,20 +669,20 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="3">
-        <v>0.2949</v>
+        <v>2.7520503000000001</v>
       </c>
       <c r="C5" s="3">
-        <v>0.7923</v>
+        <v>7.3946231999999998</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
         <f>((B6-B5)/B6)*100</f>
-        <v>-431.06428957320367</v>
+        <v>-135.97557697417787</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -690,40 +690,40 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>5.5530000000000003E-2</v>
+        <v>1.1662437000000001</v>
       </c>
       <c r="C6" s="3">
-        <v>8.2110000000000002E-2</v>
+        <v>1.7244889999999999</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
         <f>((B6-B3)/B6)*100</f>
-        <v>-141.49108589951379</v>
+        <v>19.519633846682307</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="7">
         <f>((C6-C3)/C6)*100</f>
-        <v>-206.0528559249787</v>
+        <v>-2.0136457814459794</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="3">
         <f>((C4-C6)/C4)*100</f>
-        <v>71.841563786008223</v>
+        <v>43.953401172738282</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
@@ -737,7 +737,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -759,7 +759,7 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -777,7 +777,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -810,7 +810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
@@ -833,7 +833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
@@ -847,7 +847,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
@@ -861,7 +861,7 @@
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -878,7 +878,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
@@ -892,7 +892,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
@@ -909,7 +909,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
@@ -928,7 +928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>21</v>
       </c>
@@ -942,7 +942,7 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
         <v>5</v>
@@ -954,7 +954,7 @@
       </c>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -966,7 +966,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -983,7 +983,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>23</v>
       </c>
@@ -1014,7 +1014,7 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -1038,7 +1038,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>1</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>24</v>
       </c>
@@ -1086,7 +1086,7 @@
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
         <v>5</v>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
@@ -1110,7 +1110,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>0</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>1</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>25</v>
       </c>
@@ -1158,7 +1158,7 @@
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="5" t="s">
         <v>5</v>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -1182,7 +1182,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>1</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>27</v>
       </c>
@@ -1230,7 +1230,7 @@
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="5" t="s">
         <v>5</v>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>0</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>1</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>28</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="5" t="s">
         <v>5</v>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="F52" s="8"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>2</v>
       </c>
@@ -1326,7 +1326,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>0</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>1</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -1372,7 +1372,7 @@
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="5" t="s">
         <v>5</v>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="F58" s="8"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>2</v>
       </c>
@@ -1410,7 +1410,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>1</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>30</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="5" t="s">
         <v>5</v>
@@ -1474,7 +1474,7 @@
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>2</v>
       </c>
@@ -1486,7 +1486,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>0</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>1</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>31</v>
       </c>
@@ -1534,7 +1534,7 @@
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5" t="s">
         <v>5</v>
@@ -1550,7 +1550,7 @@
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>2</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>0</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>1</v>
       </c>
@@ -1602,7 +1602,7 @@
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>32</v>
       </c>
@@ -1616,7 +1616,7 @@
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="5" t="s">
         <v>5</v>
@@ -1630,7 +1630,7 @@
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>2</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>0</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>1</v>
       </c>
@@ -1682,7 +1682,7 @@
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>33</v>
       </c>
@@ -1696,7 +1696,7 @@
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="5" t="s">
         <v>5</v>
@@ -1710,7 +1710,7 @@
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>2</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>0</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>1</v>
       </c>
@@ -1762,10 +1762,10 @@
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
         <v>35</v>
       </c>
@@ -1779,7 +1779,7 @@
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5" t="s">
         <v>36</v>
@@ -1795,7 +1795,7 @@
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>2</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>0</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>1</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>38</v>
       </c>
@@ -1857,7 +1857,7 @@
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5" t="s">
         <v>39</v>
@@ -1873,7 +1873,7 @@
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>2</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>0</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>1</v>
       </c>
@@ -1923,6 +1923,28 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A81:J81"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="A87:J87"/>
+    <mergeCell ref="A93:J93"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="E58:F58"/>
     <mergeCell ref="E22:F22"/>
@@ -1935,28 +1957,6 @@
     <mergeCell ref="A45:J45"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A75:J75"/>
-    <mergeCell ref="A81:J81"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="A87:J87"/>
-    <mergeCell ref="A93:J93"/>
-    <mergeCell ref="A63:J63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/validation/percentage_calculations.xlsx
+++ b/validation/percentage_calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bosoro/Documents/GitHub/saleos/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A751E16F-8E9F-0948-BC81-B4B2804B0069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B0912C-0466-5D48-AD75-F3EC53CFFC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38520" yWindow="1180" windowWidth="30380" windowHeight="21000" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
+    <workbookView xWindow="0" yWindow="1740" windowWidth="30240" windowHeight="15320" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics validation" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="55">
   <si>
     <t>Kuiper</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Total Usable Constelation Capacity</t>
   </si>
   <si>
-    <t>% is higher than Kuiper</t>
-  </si>
-  <si>
     <t>Subscribers per Area</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>TCO Per User</t>
   </si>
   <si>
-    <t>% higher than Starlink</t>
-  </si>
-  <si>
     <t>Total Social Cost of Carbon</t>
   </si>
   <si>
@@ -157,13 +151,64 @@
   </si>
   <si>
     <t>GEO</t>
+  </si>
+  <si>
+    <t>% lower than Kuiper</t>
+  </si>
+  <si>
+    <t>% higher than GEO</t>
+  </si>
+  <si>
+    <t>% higher than Geo</t>
+  </si>
+  <si>
+    <t>% less than GEO</t>
+  </si>
+  <si>
+    <t>% less than OneWeb</t>
+  </si>
+  <si>
+    <t>% lower than GEO</t>
+  </si>
+  <si>
+    <t>% lower than OneWeb</t>
+  </si>
+  <si>
+    <t>2% lower</t>
+  </si>
+  <si>
+    <t>lower than GEO</t>
+  </si>
+  <si>
+    <t>lower than OneWeb</t>
+  </si>
+  <si>
+    <t>% lower than Starlink</t>
+  </si>
+  <si>
+    <t>Comparison</t>
+  </si>
+  <si>
+    <t>MNOs</t>
+  </si>
+  <si>
+    <t>Times BS</t>
+  </si>
+  <si>
+    <t>Times WC</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +246,13 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -210,7 +262,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -233,11 +285,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -246,6 +336,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -259,7 +359,8 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -572,16 +673,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2B89D4-AFEF-394A-ABD6-6266674C454B}">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1"/>
-    <col min="2" max="2" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.5" style="1"/>
     <col min="5" max="5" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5" style="1" bestFit="1" customWidth="1"/>
@@ -593,18 +694,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
@@ -615,18 +716,18 @@
         <v>6</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="8"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -671,18 +772,18 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3">
-        <v>2.7520503000000001</v>
+        <v>0.28183930000000001</v>
       </c>
       <c r="C5" s="3">
-        <v>7.3946231999999998</v>
+        <v>0.73638769999999998</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
         <f>((B6-B5)/B6)*100</f>
-        <v>-135.97557697417787</v>
+        <v>75.833584352910123</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -724,18 +825,18 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -746,28 +847,28 @@
         <v>6</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8" t="s">
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="3">
-        <v>1.9</v>
+        <v>3.2850000000000001</v>
       </c>
       <c r="C10" s="3">
-        <v>3.6</v>
+        <v>6.2</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -782,29 +883,29 @@
         <v>0</v>
       </c>
       <c r="B11" s="3">
+        <v>1.2346999999999999</v>
+      </c>
+      <c r="C11" s="3">
         <v>1.8</v>
-      </c>
-      <c r="C11" s="3">
-        <v>7.5</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
         <f>((B10-B11)/B10)*100</f>
-        <v>5.2631578947368354</v>
+        <v>62.414003044140031</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="3">
         <f>((B11-B12)/B11)*100</f>
-        <v>38.888888888888886</v>
+        <v>36.016846197456864</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="3">
         <f>((C11-C10)/C11)*100</f>
-        <v>52</v>
+        <v>-244.44444444444446</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>17</v>
@@ -815,10 +916,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>1.1000000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="C12" s="3">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -827,25 +928,25 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3">
         <f>((C11-C12)/C11)*100</f>
-        <v>81.333333333333329</v>
+        <v>44.44444444444445</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
@@ -856,17 +957,17 @@
         <v>6</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="3">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="C16" s="3">
         <v>3.91</v>
@@ -874,7 +975,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3">
         <f>B16/B17</f>
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -883,24 +984,27 @@
         <v>0</v>
       </c>
       <c r="B17" s="3">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="C17" s="3">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3">
+        <f>B17/B18</f>
+        <v>2.9999999999999996</v>
+      </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C18" s="3">
-        <v>0.63</v>
+        <v>0.22</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3">
@@ -914,33 +1018,33 @@
         <v>1</v>
       </c>
       <c r="B19" s="3">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="C19" s="3">
-        <v>0.28999999999999998</v>
+        <v>0.19</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3">
         <f>B17/B19</f>
-        <v>2.9999999999999996</v>
+        <v>3.75</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
@@ -949,17 +1053,17 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="3">
-        <v>8.9942489999999999</v>
+        <v>41.515552999999997</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -971,13 +1075,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="3">
-        <v>4.9742629999999997</v>
+        <v>62.860146999999998</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3">
-        <f>((B23-B24)/B23)*100</f>
-        <v>44.695071261647307</v>
+        <f>((B$23-B24)/B$23)*100</f>
+        <v>-51.413488337732126</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>22</v>
@@ -985,478 +1089,508 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B25" s="3">
-        <v>2.9649800000000002</v>
+        <v>12.518879999999999</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3">
-        <f>((B23-B25)/B25)*100</f>
-        <v>203.34939864687112</v>
+        <f t="shared" ref="E25:E26" si="0">((B$23-B25)/B$23)*100</f>
+        <v>69.845325196559472</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3">
+        <v>16.539051000000001</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
+        <v>60.161795267426641</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="8" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="3">
-        <v>10.11853</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B30" s="3">
-        <v>5.5960460000000003</v>
+        <v>46.704996999999999</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="3">
-        <f>((B29-B30)/B29)*100</f>
-        <v>44.695069343076511</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" s="3">
-        <v>3.3356020000000002</v>
+        <v>70.717664999999997</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3">
-        <f>((B29-B31)/B29)*100</f>
-        <v>67.034717493548968</v>
+        <f>((B$30-B31)/B$30)*100</f>
+        <v>-51.413487940059177</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="3">
+        <v>4.6945800000000002</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
+        <f t="shared" ref="E32:E33" si="1">((B$30-B32)/B$30)*100</f>
+        <v>89.948441705284765</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3">
+        <v>18.606432999999999</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
+        <f t="shared" si="1"/>
+        <v>60.161793822618172</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5" t="s">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="8" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="3">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="3">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3">
-        <f>((B35-B36)/B35)*100</f>
-        <v>-4.315196998123831</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" s="3">
-        <v>0.54400000000000004</v>
+        <v>258.5</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="3">
-        <f>((B35-B37)/B35)*100</f>
-        <v>-2.0637898686679192</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>13</v>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="3">
+        <v>264.2</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3">
+        <f>((B$37-B38)/B$37)*100</f>
+        <v>-2.2050290135396478</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3">
+        <v>12.76</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3">
+        <f t="shared" ref="E39:E40" si="2">((B$37-B39)/B$37)*100</f>
+        <v>95.063829787234042</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="3">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3">
+        <f t="shared" si="2"/>
+        <v>49.593810444874272</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5" t="s">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="8" t="s">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="3">
-        <v>36792055</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="B44" s="3">
+        <v>23915613</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="3">
-        <v>28078905</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3">
-        <f>((B41-B42)/B41)*100</f>
-        <v>23.682150942642373</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="3">
-        <v>2289712</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3">
-        <f>((B41-B43)/B41)*100</f>
-        <v>93.776612912760655</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
+      <c r="B45" s="3">
+        <v>17869692</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3">
+        <f>((B$44-B45)/B$44)*100</f>
+        <v>25.280225934413643</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="8"/>
+      <c r="A46" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2095387</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3">
+        <f t="shared" ref="E46:E47" si="3">((B$44-B46)/B$44)*100</f>
+        <v>91.238414001765292</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" s="3">
-        <v>30</v>
+        <v>1961421</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+      <c r="E47" s="3">
+        <f t="shared" si="3"/>
+        <v>91.798575265455256</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="12"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="3">
+        <v>121.47058819999999</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="3">
-        <v>16</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3">
-        <f>((B47-B48)/B47)*100</f>
-        <v>46.666666666666664</v>
-      </c>
-      <c r="F48" s="3" t="s">
+      <c r="B52" s="3">
+        <v>63.450980399999999</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3">
+        <f>((B$51-B52)/B$51)*100</f>
+        <v>47.764326047776557</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="3">
-        <v>1</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3">
-        <f>((B47-B49)/B47)*100</f>
-        <v>96.666666666666671</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="8"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B53" s="3">
-        <v>123</v>
+        <v>0.37254900000000002</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+      <c r="E53" s="3">
+        <f t="shared" ref="E53:E54" si="4">((B$51-B53)/B$51)*100</f>
+        <v>99.693301065286192</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" s="3">
-        <v>125</v>
+        <v>4.5176470999999996</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3">
-        <f>((B53-B54)/B53)*100</f>
-        <v>-1.6260162601626018</v>
+        <f t="shared" si="4"/>
+        <v>96.280871635723258</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="3">
-        <v>106</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3">
-        <f>((B53-B55)/B53)*100</f>
-        <v>13.821138211382115</v>
-      </c>
-      <c r="F55" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
+      <c r="A56" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="12"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="8"/>
+      <c r="A58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="8">
+        <v>1790693767</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="3">
-        <v>475130000</v>
+        <v>0</v>
+      </c>
+      <c r="B59" s="8">
+        <v>1001134463</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
+      <c r="E59" s="3">
+        <f>((B$58-B59)/B$58)*100</f>
+        <v>44.092369033191595</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="3">
-        <v>395900000</v>
+        <v>38</v>
+      </c>
+      <c r="B60" s="8">
+        <v>3550108263</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3">
-        <f>((B59-B60)/B59)*100</f>
-        <v>16.675436196409404</v>
+        <f>((B$58-B60)/B$58)*100</f>
+        <v>-98.253231704022568</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="3">
-        <v>352900000</v>
+      <c r="B61" s="8">
+        <v>954781037</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3">
-        <f>((B59-B61)/B59)*100</f>
-        <v>25.725590890914063</v>
+        <f t="shared" ref="E61" si="5">((B$58-B61)/B$58)*100</f>
+        <v>46.680942627081805</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+    </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
+      <c r="A63" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
@@ -1465,21 +1599,17 @@
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
+      <c r="F64" s="12"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="3">
-        <v>1198</v>
+      <c r="B65" s="8">
+        <v>2382827014</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -1487,453 +1617,778 @@
       <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="3">
-        <v>1132</v>
+      <c r="B66" s="8">
+        <v>3298803183</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3">
-        <f>((B65-B66)/B65)*100</f>
-        <v>5.5091819699499167</v>
+        <f>((B$65-B66)/B$65)*100</f>
+        <v>-38.440732945291344</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67" s="3">
-        <v>997</v>
+      <c r="A67" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="8">
+        <v>2636033334</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3">
-        <f>((B65-B67)/B65)*100</f>
-        <v>16.7779632721202</v>
+        <f t="shared" ref="E67:E68" si="6">((B$65-B67)/B$65)*100</f>
+        <v>-10.626298867367129</v>
       </c>
       <c r="F67" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="8">
+        <v>428206154</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3">
+        <f t="shared" si="6"/>
+        <v>82.029490538585947</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-    </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5" t="s">
+      <c r="A70" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="8"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="3">
-        <v>143.70519999999999</v>
-      </c>
-      <c r="C71" s="3">
-        <v>36</v>
-      </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3">
-        <f>((B73-B71)/B73)*100</f>
-        <v>71.231152031553705</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="12"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B72" s="3">
-        <v>178.334</v>
-      </c>
-      <c r="C72" s="3">
-        <v>65</v>
-      </c>
+        <v>1382987191</v>
+      </c>
+      <c r="C72" s="3"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="3">
-        <f>((B73-B72)/B73)*100</f>
-        <v>64.298691114831598</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="3">
+        <v>6186141597</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3">
+        <f>((B$72-B73)/B$72)*100</f>
+        <v>-347.30288445599928</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="3">
+        <v>4173520782</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3">
+        <f t="shared" ref="E74:E75" si="7">((B$72-B74)/B$72)*100</f>
+        <v>-201.77580885490647</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B73" s="3">
-        <v>499.51670000000001</v>
-      </c>
-      <c r="C73" s="3">
-        <v>153</v>
-      </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5" t="s">
+      <c r="B75" s="3">
+        <v>4299937646</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3">
+        <f t="shared" si="7"/>
+        <v>-210.91666459259346</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" s="3">
-        <v>37</v>
-      </c>
-      <c r="C77" s="3">
-        <v>29</v>
-      </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3">
-        <f>((B79-B77)/B79)*100</f>
-        <v>75.167785234899327</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="3">
-        <v>56</v>
-      </c>
-      <c r="C78" s="3">
-        <v>57</v>
-      </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3">
-        <f>((B79-B78)/B79)*100</f>
-        <v>62.416107382550337</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="12"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="3">
+        <v>535.2577</v>
+      </c>
+      <c r="C79" s="3">
+        <v>36</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3">
+        <f>((B82-B79)/ B82)*100</f>
+        <v>59.435463451783619</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1054.4132999999999</v>
+      </c>
+      <c r="C80" s="3">
+        <v>65</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3">
+        <f>((B$82-B80)/B$82)*100</f>
+        <v>20.091225507310885</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" s="3">
+        <v>680.80769999999995</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3">
+        <f t="shared" ref="E81:E82" si="8">((B$82-B81)/B$82)*100</f>
+        <v>48.404948067151331</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B79" s="3">
-        <v>149</v>
-      </c>
-      <c r="C79" s="3">
-        <v>125</v>
-      </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3">
+        <v>1319.5213000000001</v>
+      </c>
+      <c r="C82" s="3">
+        <v>153</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B83" s="3">
-        <v>363</v>
-      </c>
-      <c r="C83" s="3">
-        <v>182</v>
-      </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3">
-        <f>((B85-B83)/B85)*100</f>
-        <v>74.309978768577494</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
+      <c r="B86" s="3">
+        <v>1193.4763</v>
+      </c>
+      <c r="C86" s="3">
+        <v>29</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3">
+        <f>((B$89-B86)/B$89)*100</f>
+        <v>-198.03095887715386</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="3">
-        <v>510</v>
-      </c>
-      <c r="C84" s="3">
-        <v>353</v>
-      </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3">
-        <f>((B85-B84)/B85)*100</f>
-        <v>63.906581740976641</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B85" s="3">
-        <v>1413</v>
-      </c>
-      <c r="C85" s="3">
-        <v>801</v>
-      </c>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="2"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10"/>
+      <c r="B87" s="3">
+        <v>1420.0433</v>
+      </c>
+      <c r="C87" s="3">
+        <v>57</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3">
+        <f t="shared" ref="E87:E89" si="9">((B$89-B87)/B$89)*100</f>
+        <v>-254.60852163220827</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F88" s="8"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
+      <c r="A88" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" s="3">
+        <v>511.6268</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3">
+        <f t="shared" si="9"/>
+        <v>-27.761754289758265</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="3">
+        <v>400.4538</v>
+      </c>
+      <c r="C89" s="3">
+        <v>125</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="3">
-        <v>354</v>
-      </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F89" s="3">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+      <c r="B93" s="3">
+        <v>1728.7339999999999</v>
+      </c>
+      <c r="C93" s="3">
+        <v>182</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3">
+        <f>((B$96-B93)/B$96)*100</f>
+        <v>-0.50924574431338054</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="3">
-        <v>325</v>
-      </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F90" s="3">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B91" s="3">
-        <v>209</v>
-      </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F91" s="3">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="3">
+        <v>2474.4566</v>
+      </c>
+      <c r="C94" s="3">
+        <v>353</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3">
+        <f t="shared" ref="E94:E96" si="10">((B$96-B94)/B$96)*100</f>
+        <v>-43.865838522894883</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F94" s="8"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B95" s="3">
-        <v>101</v>
+        <v>1192.4345000000001</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F95" s="3">
-        <v>190</v>
+      <c r="E95" s="3">
+        <f t="shared" si="10"/>
+        <v>30.671409138422995</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1719.9751000000001</v>
+      </c>
+      <c r="C96" s="3">
+        <v>801</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="B96" s="3">
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="2"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F99" s="12"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="3">
+        <v>608</v>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="3">
+        <v>369</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B102" s="3">
         <v>130</v>
       </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="4" t="s">
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F102" s="3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" s="3">
+        <v>173</v>
+      </c>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F103" s="3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F106" s="12"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="3">
+        <v>174</v>
+      </c>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F107" s="3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F96" s="3">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
+      <c r="B108" s="3">
+        <v>148</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F108" s="3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B109" s="3">
+        <v>52</v>
+      </c>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F109" s="3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B97" s="3">
-        <v>261</v>
-      </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="4" t="s">
+      <c r="B110" s="3">
+        <v>216</v>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F97" s="3">
-        <v>315</v>
-      </c>
+      <c r="F110" s="3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="11"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="3">
+        <v>257</v>
+      </c>
+      <c r="C115" s="3">
+        <v>616</v>
+      </c>
+      <c r="D115" s="7">
+        <f>B115/B$120</f>
+        <v>38.939393939393945</v>
+      </c>
+      <c r="E115" s="7">
+        <f>C115/B$120</f>
+        <v>93.333333333333343</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="3">
+        <v>233</v>
+      </c>
+      <c r="C116" s="3">
+        <v>344</v>
+      </c>
+      <c r="D116" s="7">
+        <f>B116/B$120</f>
+        <v>35.303030303030305</v>
+      </c>
+      <c r="E116" s="7">
+        <f>C116/B$120</f>
+        <v>52.121212121212125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="3">
+        <v>187</v>
+      </c>
+      <c r="C117" s="3">
+        <v>352</v>
+      </c>
+      <c r="D117" s="7">
+        <f>B117/B$120</f>
+        <v>28.333333333333336</v>
+      </c>
+      <c r="E117" s="7">
+        <f>C117/B$120</f>
+        <v>53.333333333333336</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B118" s="3">
+        <v>56</v>
+      </c>
+      <c r="C118" s="3">
+        <v>147</v>
+      </c>
+      <c r="D118" s="7">
+        <f>B118/B$120</f>
+        <v>8.4848484848484844</v>
+      </c>
+      <c r="E118" s="7">
+        <f>C118/B$120</f>
+        <v>22.272727272727273</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B119" s="7">
+        <f>AVERAGE(B115:B117)</f>
+        <v>225.66666666666666</v>
+      </c>
+      <c r="C119" s="3"/>
+      <c r="D119" s="7">
+        <f>B119/B120</f>
+        <v>34.19191919191919</v>
+      </c>
+      <c r="E119" s="7"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B120" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A75:J75"/>
-    <mergeCell ref="A81:J81"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="A87:J87"/>
-    <mergeCell ref="A93:J93"/>
-    <mergeCell ref="A63:J63"/>
+  <mergeCells count="35">
+    <mergeCell ref="A98:J98"/>
+    <mergeCell ref="A105:J105"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="A84:J84"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="E78:F78"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="E9:F9"/>
@@ -1945,18 +2400,22 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E64:F64"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="A63:J63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/validation/percentage_calculations.xlsx
+++ b/validation/percentage_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bosoro/Documents/GitHub/saleos/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B0912C-0466-5D48-AD75-F3EC53CFFC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95D3F82-7E6B-824A-81ED-465512B181CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1740" windowWidth="30240" windowHeight="15320" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
+    <workbookView xWindow="74640" yWindow="1080" windowWidth="30240" windowHeight="15320" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics validation" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="61">
   <si>
     <t>Kuiper</t>
   </si>
@@ -199,6 +199,24 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>Ecotoxicity OneWeb</t>
+  </si>
+  <si>
+    <t>HYC</t>
+  </si>
+  <si>
+    <t>Rocket</t>
+  </si>
+  <si>
+    <t>Times</t>
+  </si>
+  <si>
+    <t>HYD</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -337,6 +355,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,18 +374,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -673,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2B89D4-AFEF-394A-ABD6-6266674C454B}">
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -694,18 +712,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
@@ -716,18 +734,18 @@
         <v>6</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="12"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -825,18 +843,18 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -847,18 +865,18 @@
         <v>6</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12" t="s">
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="12"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -935,18 +953,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
@@ -957,10 +975,10 @@
         <v>6</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -1033,18 +1051,18 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
@@ -1053,10 +1071,10 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="12"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -1122,18 +1140,18 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
@@ -1142,10 +1160,10 @@
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="12"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
@@ -1211,18 +1229,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
@@ -1231,10 +1249,10 @@
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="12"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
@@ -1300,18 +1318,18 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
@@ -1320,10 +1338,10 @@
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="12"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
@@ -1389,18 +1407,18 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
@@ -1409,10 +1427,10 @@
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="12"/>
+      <c r="F50" s="11"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
@@ -1478,18 +1496,18 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
@@ -1498,10 +1516,10 @@
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="12"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -1579,18 +1597,18 @@
       <c r="J62" s="6"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
@@ -1599,10 +1617,10 @@
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="12"/>
+      <c r="F64" s="11"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
@@ -1668,18 +1686,18 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
@@ -1688,10 +1706,10 @@
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
-      <c r="E71" s="12" t="s">
+      <c r="E71" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="12"/>
+      <c r="F71" s="11"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
@@ -1761,18 +1779,18 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
@@ -1781,10 +1799,10 @@
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
-      <c r="E78" s="12" t="s">
+      <c r="E78" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="12"/>
+      <c r="F78" s="11"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
@@ -1863,18 +1881,18 @@
       <c r="F82" s="3"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
@@ -1963,18 +1981,18 @@
       <c r="F89" s="3"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
@@ -2066,18 +2084,18 @@
       <c r="A97" s="2"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
@@ -2086,10 +2104,10 @@
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
-      <c r="E99" s="12" t="s">
+      <c r="E99" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F99" s="12"/>
+      <c r="F99" s="11"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
@@ -2160,18 +2178,18 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="13" t="s">
+      <c r="A105" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="14"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
@@ -2180,10 +2198,10 @@
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
-      <c r="E106" s="12" t="s">
+      <c r="E106" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F106" s="12"/>
+      <c r="F106" s="11"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
@@ -2254,13 +2272,13 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="11"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="15"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
@@ -2379,27 +2397,47 @@
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C122" s="5"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B124" s="3">
+        <v>46</v>
+      </c>
+      <c r="C124" s="3">
+        <f>B124/B125</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B125" s="3">
+        <v>4</v>
+      </c>
+      <c r="C125" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A98:J98"/>
-    <mergeCell ref="A105:J105"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="A84:J84"/>
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="E15:F15"/>
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E64:F64"/>
@@ -2416,6 +2454,25 @@
     <mergeCell ref="E99:F99"/>
     <mergeCell ref="E106:F106"/>
     <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A98:J98"/>
+    <mergeCell ref="A105:J105"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="A84:J84"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="E78:F78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/validation/percentage_calculations.xlsx
+++ b/validation/percentage_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bosoro/Documents/GitHub/saleos/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95D3F82-7E6B-824A-81ED-465512B181CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98306CCA-C501-9C44-A3D1-CABA1985CA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="74640" yWindow="1080" windowWidth="30240" windowHeight="15320" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
+    <workbookView xWindow="47000" yWindow="2560" windowWidth="30240" windowHeight="15320" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics validation" sheetId="2" r:id="rId1"/>
@@ -355,18 +355,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -374,6 +362,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -694,7 +694,7 @@
   <dimension ref="A1:J125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -712,18 +712,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
@@ -734,18 +734,18 @@
         <v>6</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="11"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -843,18 +843,18 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -865,18 +865,18 @@
         <v>6</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="s">
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="11"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -953,18 +953,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
@@ -975,10 +975,10 @@
         <v>6</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -1051,18 +1051,18 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
@@ -1071,10 +1071,10 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="11"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -1140,18 +1140,18 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
@@ -1160,10 +1160,10 @@
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="11"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
@@ -1229,18 +1229,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
@@ -1249,10 +1249,10 @@
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="11"/>
+      <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
@@ -1318,18 +1318,18 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
@@ -1338,10 +1338,10 @@
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="11"/>
+      <c r="F43" s="12"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
@@ -1407,18 +1407,18 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
@@ -1427,10 +1427,10 @@
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="11"/>
+      <c r="F50" s="12"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
@@ -1496,18 +1496,18 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
@@ -1516,10 +1516,10 @@
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="11"/>
+      <c r="F57" s="12"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -1597,18 +1597,18 @@
       <c r="J62" s="6"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
@@ -1617,10 +1617,10 @@
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="11"/>
+      <c r="F64" s="12"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
@@ -1686,18 +1686,18 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
@@ -1706,10 +1706,10 @@
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="11"/>
+      <c r="F71" s="12"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
@@ -1779,18 +1779,18 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
@@ -1799,10 +1799,10 @@
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
-      <c r="E78" s="11" t="s">
+      <c r="E78" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="11"/>
+      <c r="F78" s="12"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
@@ -1881,18 +1881,18 @@
       <c r="F82" s="3"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
@@ -1981,18 +1981,18 @@
       <c r="F89" s="3"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
@@ -2084,18 +2084,18 @@
       <c r="A97" s="2"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
@@ -2104,10 +2104,10 @@
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
-      <c r="E99" s="11" t="s">
+      <c r="E99" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F99" s="11"/>
+      <c r="F99" s="12"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
@@ -2178,18 +2178,18 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
@@ -2198,10 +2198,10 @@
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
-      <c r="E106" s="11" t="s">
+      <c r="E106" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F106" s="11"/>
+      <c r="F106" s="12"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
@@ -2272,13 +2272,13 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="13" t="s">
+      <c r="A113" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="15"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="11"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
@@ -2300,18 +2300,18 @@
         <v>0</v>
       </c>
       <c r="B115" s="3">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="C115" s="3">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D115" s="7">
         <f>B115/B$120</f>
-        <v>38.939393939393945</v>
+        <v>41.81818181818182</v>
       </c>
       <c r="E115" s="7">
         <f>C115/B$120</f>
-        <v>93.333333333333343</v>
+        <v>93.181818181818187</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -2322,7 +2322,7 @@
         <v>233</v>
       </c>
       <c r="C116" s="3">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D116" s="7">
         <f>B116/B$120</f>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="E116" s="7">
         <f>C116/B$120</f>
-        <v>52.121212121212125</v>
+        <v>52.272727272727273</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -2338,14 +2338,14 @@
         <v>2</v>
       </c>
       <c r="B117" s="3">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C117" s="3">
         <v>352</v>
       </c>
       <c r="D117" s="7">
         <f>B117/B$120</f>
-        <v>28.333333333333336</v>
+        <v>28.484848484848488</v>
       </c>
       <c r="E117" s="7">
         <f>C117/B$120</f>
@@ -2357,18 +2357,18 @@
         <v>38</v>
       </c>
       <c r="B118" s="3">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C118" s="3">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="D118" s="7">
         <f>B118/B$120</f>
-        <v>8.4848484848484844</v>
+        <v>2.8787878787878789</v>
       </c>
       <c r="E118" s="7">
         <f>C118/B$120</f>
-        <v>22.272727272727273</v>
+        <v>7.4242424242424248</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -2376,13 +2376,13 @@
         <v>54</v>
       </c>
       <c r="B119" s="7">
-        <f>AVERAGE(B115:B117)</f>
-        <v>225.66666666666666</v>
+        <f>AVERAGE(B115:B118)</f>
+        <v>179</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="7">
         <f>B119/B120</f>
-        <v>34.19191919191919</v>
+        <v>27.121212121212121</v>
       </c>
       <c r="E119" s="7"/>
     </row>
@@ -2438,6 +2438,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A98:J98"/>
+    <mergeCell ref="A105:J105"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="A84:J84"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E64:F64"/>
@@ -2454,25 +2473,6 @@
     <mergeCell ref="E99:F99"/>
     <mergeCell ref="E106:F106"/>
     <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A98:J98"/>
-    <mergeCell ref="A105:J105"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="A84:J84"/>
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="E78:F78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/validation/percentage_calculations.xlsx
+++ b/validation/percentage_calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bosoro/Documents/GitHub/saleos/validation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoughton\Desktop\Github\saleos\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98306CCA-C501-9C44-A3D1-CABA1985CA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8650BB3E-7295-4D39-9665-78C9B2882443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47000" yWindow="2560" windowWidth="30240" windowHeight="15320" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics validation" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="62">
   <si>
     <t>Kuiper</t>
   </si>
@@ -186,21 +186,12 @@
     <t>% lower than Starlink</t>
   </si>
   <si>
-    <t>Comparison</t>
-  </si>
-  <si>
-    <t>MNOs</t>
-  </si>
-  <si>
     <t>Times BS</t>
   </si>
   <si>
     <t>Times WC</t>
   </si>
   <si>
-    <t>Average</t>
-  </si>
-  <si>
     <t>Ecotoxicity OneWeb</t>
   </si>
   <si>
@@ -217,14 +208,27 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>Rural_Ruiz_et_al</t>
+  </si>
+  <si>
+    <t>Remote_Ruiz_et_al</t>
+  </si>
+  <si>
+    <t>Comparison against rural (kg CO2eq/subscriber)</t>
+  </si>
+  <si>
+    <t>Comparison against remote (kg CO2eq/subscriber)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -345,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -355,6 +359,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -364,18 +380,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -691,41 +696,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2B89D4-AFEF-394A-ABD6-6266674C454B}">
-  <dimension ref="A1:J125"/>
+  <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N130" sqref="K121:N130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1"/>
+    <col min="1" max="1" width="26.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.5" style="1"/>
-    <col min="5" max="5" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="1"/>
+    <col min="5" max="5" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1"/>
-    <col min="10" max="10" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.5" style="1"/>
+    <col min="9" max="9" width="11.44140625" style="1"/>
+    <col min="10" max="10" width="22.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -734,20 +739,20 @@
         <v>6</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -765,7 +770,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -788,7 +793,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -809,7 +814,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -842,21 +847,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -865,20 +870,20 @@
         <v>6</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12" t="s">
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -896,7 +901,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -929,7 +934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
@@ -952,21 +957,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
@@ -975,12 +980,12 @@
         <v>6</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -997,7 +1002,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +1019,7 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>38</v>
       </c>
@@ -1031,7 +1036,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
@@ -1050,33 +1055,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -1088,7 +1093,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1110,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>38</v>
       </c>
@@ -1122,7 +1127,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>1</v>
       </c>
@@ -1139,33 +1144,33 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -1177,7 +1182,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
@@ -1194,7 +1199,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>38</v>
       </c>
@@ -1211,7 +1216,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>1</v>
       </c>
@@ -1228,33 +1233,33 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
@@ -1266,7 +1271,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +1288,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -1300,7 +1305,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
@@ -1317,33 +1322,33 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="12"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>2</v>
       </c>
@@ -1355,7 +1360,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +1377,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>38</v>
       </c>
@@ -1389,7 +1394,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>1</v>
       </c>
@@ -1406,33 +1411,33 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="12"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F50" s="11"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
@@ -1444,7 +1449,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>0</v>
       </c>
@@ -1461,7 +1466,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>38</v>
       </c>
@@ -1478,7 +1483,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>1</v>
       </c>
@@ -1495,33 +1500,33 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="12"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F57" s="11"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -1533,7 +1538,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>0</v>
       </c>
@@ -1550,7 +1555,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>38</v>
       </c>
@@ -1567,7 +1572,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>1</v>
       </c>
@@ -1584,7 +1589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -1596,33 +1601,33 @@
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="13" t="s">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="12"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F64" s="11"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
@@ -1634,7 +1639,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1656,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>38</v>
       </c>
@@ -1668,7 +1673,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>1</v>
       </c>
@@ -1685,37 +1690,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="13" t="s">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
-      <c r="E71" s="12" t="s">
+      <c r="E71" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="12"/>
+      <c r="F71" s="11"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>2</v>
       </c>
@@ -1727,7 +1732,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>0</v>
       </c>
@@ -1744,7 +1749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>38</v>
       </c>
@@ -1761,7 +1766,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>1</v>
       </c>
@@ -1778,37 +1783,37 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="13" t="s">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
-      <c r="E78" s="12" t="s">
+      <c r="E78" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="12"/>
+      <c r="F78" s="11"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>2</v>
       </c>
@@ -1827,7 +1832,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>0</v>
       </c>
@@ -1846,7 +1851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>38</v>
       </c>
@@ -1863,7 +1868,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>1</v>
       </c>
@@ -1880,21 +1885,21 @@
       </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="5" t="s">
         <v>5</v>
@@ -1908,7 +1913,7 @@
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>2</v>
       </c>
@@ -1927,7 +1932,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>0</v>
       </c>
@@ -1946,7 +1951,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>38</v>
       </c>
@@ -1963,7 +1968,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>1</v>
       </c>
@@ -1980,21 +1985,21 @@
       </c>
       <c r="F89" s="3"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="13" t="s">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="5" t="s">
         <v>5</v>
@@ -2008,7 +2013,7 @@
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>2</v>
       </c>
@@ -2027,7 +2032,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>0</v>
       </c>
@@ -2046,7 +2051,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>38</v>
       </c>
@@ -2063,7 +2068,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>1</v>
       </c>
@@ -2080,40 +2085,40 @@
       </c>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="13" t="s">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
-      <c r="E99" s="12" t="s">
+      <c r="E99" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F99" s="12"/>
+      <c r="F99" s="11"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>2</v>
       </c>
@@ -2129,7 +2134,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>0</v>
       </c>
@@ -2145,7 +2150,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>38</v>
       </c>
@@ -2161,7 +2166,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>1</v>
       </c>
@@ -2177,37 +2182,37 @@
         <v>255</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="13" t="s">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="14"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="B106" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
-      <c r="E106" s="12" t="s">
+      <c r="E106" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F106" s="12"/>
+      <c r="F106" s="11"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>2</v>
       </c>
@@ -2223,7 +2228,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>0</v>
       </c>
@@ -2239,7 +2244,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>38</v>
       </c>
@@ -2255,7 +2260,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>1</v>
       </c>
@@ -2271,16 +2276,23 @@
         <v>319</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="11"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A113" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="15"/>
+      <c r="G113" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
+      <c r="J113" s="14"/>
+      <c r="K113" s="15"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="5" t="s">
         <v>5</v>
@@ -2289,174 +2301,325 @@
         <v>6</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="3">
-        <v>276</v>
-      </c>
-      <c r="C115" s="3">
-        <v>615</v>
+      <c r="B115" s="7">
+        <v>314</v>
+      </c>
+      <c r="C115" s="7">
+        <v>617</v>
       </c>
       <c r="D115" s="7">
-        <f>B115/B$120</f>
-        <v>41.81818181818182</v>
+        <f>B115/$B$119</f>
+        <v>9.573170731707318</v>
       </c>
       <c r="E115" s="7">
-        <f>C115/B$120</f>
-        <v>93.181818181818187</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+        <f>C115/$B$119</f>
+        <v>18.810975609756099</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H115" s="7">
+        <v>314</v>
+      </c>
+      <c r="I115" s="7">
+        <v>617</v>
+      </c>
+      <c r="J115" s="7">
+        <f>H115/$H$119</f>
+        <v>7.9493670886075947</v>
+      </c>
+      <c r="K115" s="7">
+        <f>I115/$H$119</f>
+        <v>15.620253164556962</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B116" s="3">
-        <v>233</v>
-      </c>
-      <c r="C116" s="3">
-        <v>345</v>
+      <c r="B116" s="7">
+        <v>264</v>
+      </c>
+      <c r="C116" s="7">
+        <v>391</v>
       </c>
       <c r="D116" s="7">
-        <f>B116/B$120</f>
-        <v>35.303030303030305</v>
+        <f t="shared" ref="D116:D118" si="11">B116/$B$119</f>
+        <v>8.0487804878048781</v>
       </c>
       <c r="E116" s="7">
-        <f>C116/B$120</f>
-        <v>52.272727272727273</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E116:E118" si="12">C116/$B$119</f>
+        <v>11.920731707317074</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H116" s="7">
+        <v>264</v>
+      </c>
+      <c r="I116" s="7">
+        <v>391</v>
+      </c>
+      <c r="J116" s="7">
+        <f t="shared" ref="J116:K118" si="13">H116/$H$119</f>
+        <v>6.6835443037974684</v>
+      </c>
+      <c r="K116" s="7">
+        <f t="shared" si="13"/>
+        <v>9.8987341772151893</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B117" s="3">
-        <v>188</v>
-      </c>
-      <c r="C117" s="3">
-        <v>352</v>
+      <c r="B117" s="7">
+        <v>199</v>
+      </c>
+      <c r="C117" s="7">
+        <v>373</v>
       </c>
       <c r="D117" s="7">
-        <f>B117/B$120</f>
-        <v>28.484848484848488</v>
+        <f t="shared" si="11"/>
+        <v>6.0670731707317076</v>
       </c>
       <c r="E117" s="7">
-        <f>C117/B$120</f>
-        <v>53.333333333333336</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>11.371951219512196</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H117" s="7">
+        <v>199</v>
+      </c>
+      <c r="I117" s="7">
+        <v>373</v>
+      </c>
+      <c r="J117" s="7">
+        <f t="shared" si="13"/>
+        <v>5.037974683544304</v>
+      </c>
+      <c r="K117" s="7">
+        <f t="shared" si="13"/>
+        <v>9.4430379746835449</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B118" s="3">
-        <v>19</v>
-      </c>
-      <c r="C118" s="3">
-        <v>49</v>
-      </c>
-      <c r="D118" s="7">
-        <f>B118/B$120</f>
-        <v>2.8787878787878789</v>
-      </c>
-      <c r="E118" s="7">
-        <f>C118/B$120</f>
-        <v>7.4242424242424248</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B118" s="7">
+        <v>21</v>
+      </c>
+      <c r="C118" s="7">
+        <v>55</v>
+      </c>
+      <c r="D118" s="16">
+        <f t="shared" si="11"/>
+        <v>0.6402439024390244</v>
+      </c>
+      <c r="E118" s="16">
+        <f t="shared" si="12"/>
+        <v>1.6768292682926831</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H118" s="7">
+        <v>21</v>
+      </c>
+      <c r="I118" s="7">
+        <v>55</v>
+      </c>
+      <c r="J118" s="16">
+        <f t="shared" si="13"/>
+        <v>0.53164556962025311</v>
+      </c>
+      <c r="K118" s="16">
+        <f t="shared" si="13"/>
+        <v>1.3924050632911393</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B119" s="16">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="C119" s="3"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="G119" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H119" s="16">
+        <v>39.5</v>
+      </c>
+      <c r="I119" s="3"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A121"/>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A122"/>
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B123" s="7"/>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B119" s="7">
-        <f>AVERAGE(B115:B118)</f>
-        <v>179</v>
-      </c>
-      <c r="C119" s="3"/>
-      <c r="D119" s="7">
-        <f>B119/B120</f>
-        <v>27.121212121212121</v>
-      </c>
-      <c r="E119" s="7"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B120" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5" t="s">
+      <c r="B125" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C125" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C122" s="5"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
+      <c r="G125"/>
+      <c r="H125"/>
+      <c r="I125"/>
+      <c r="J125"/>
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125"/>
+      <c r="N125"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B126" s="3">
+        <v>46</v>
+      </c>
+      <c r="C126" s="3">
+        <f>B126/B127</f>
+        <v>11.5</v>
+      </c>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B124" s="3">
-        <v>46</v>
-      </c>
-      <c r="C124" s="3">
-        <f>B124/B125</f>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B125" s="3">
+      <c r="B127" s="3">
         <v>4</v>
       </c>
-      <c r="C125" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+    </row>
+    <row r="129" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+    </row>
+    <row r="130" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130"/>
+      <c r="N130"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A98:J98"/>
-    <mergeCell ref="A105:J105"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="A84:J84"/>
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="E15:F15"/>
+  <mergeCells count="36">
+    <mergeCell ref="G113:K113"/>
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E64:F64"/>
@@ -2473,7 +2636,27 @@
     <mergeCell ref="E99:F99"/>
     <mergeCell ref="E106:F106"/>
     <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A98:J98"/>
+    <mergeCell ref="A105:J105"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="A84:J84"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="E78:F78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/validation/percentage_calculations.xlsx
+++ b/validation/percentage_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoughton\Desktop\Github\saleos\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8650BB3E-7295-4D39-9665-78C9B2882443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB36FF5-F364-4772-89EB-95D6C7DA391F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="63">
   <si>
     <t>Kuiper</t>
   </si>
@@ -220,15 +220,20 @@
   </si>
   <si>
     <t>Comparison against remote (kg CO2eq/subscriber)</t>
+  </si>
+  <si>
+    <t>Mean_LEO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -349,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -359,18 +364,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -380,7 +374,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -696,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2B89D4-AFEF-394A-ABD6-6266674C454B}">
-  <dimension ref="A1:N130"/>
+  <dimension ref="A1:N131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N130" sqref="K121:N130"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -717,18 +725,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -739,18 +747,18 @@
         <v>6</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="11"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -848,18 +856,18 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
@@ -870,18 +878,18 @@
         <v>6</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="s">
+      <c r="H9" s="13"/>
+      <c r="I9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="11"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -958,18 +966,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
@@ -980,10 +988,10 @@
         <v>6</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -1056,18 +1064,18 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
@@ -1076,10 +1084,10 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="11"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
@@ -1145,18 +1153,18 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
@@ -1165,10 +1173,10 @@
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="11"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
@@ -1234,18 +1242,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
@@ -1254,10 +1262,10 @@
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="11"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
@@ -1323,18 +1331,18 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
@@ -1343,10 +1351,10 @@
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="11"/>
+      <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
@@ -1412,18 +1420,18 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
@@ -1432,10 +1440,10 @@
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="11"/>
+      <c r="F50" s="13"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
@@ -1501,18 +1509,18 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
@@ -1521,10 +1529,10 @@
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="11"/>
+      <c r="F57" s="13"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
@@ -1602,18 +1610,18 @@
       <c r="J62" s="6"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
@@ -1622,10 +1630,10 @@
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="11"/>
+      <c r="F64" s="13"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
@@ -1691,18 +1699,18 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
@@ -1711,10 +1719,10 @@
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="11"/>
+      <c r="F71" s="13"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
@@ -1784,18 +1792,18 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
@@ -1804,10 +1812,10 @@
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
-      <c r="E78" s="11" t="s">
+      <c r="E78" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="11"/>
+      <c r="F78" s="13"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
@@ -1886,18 +1894,18 @@
       <c r="F82" s="3"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
@@ -1986,18 +1994,18 @@
       <c r="F89" s="3"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
@@ -2089,18 +2097,18 @@
       <c r="A97" s="2"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="15"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
@@ -2109,10 +2117,10 @@
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
-      <c r="E99" s="11" t="s">
+      <c r="E99" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F99" s="11"/>
+      <c r="F99" s="13"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
@@ -2183,18 +2191,18 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="15"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
@@ -2203,10 +2211,10 @@
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
-      <c r="E106" s="11" t="s">
+      <c r="E106" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F106" s="11"/>
+      <c r="F106" s="13"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
@@ -2277,20 +2285,20 @@
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A113" s="13" t="s">
+      <c r="A113" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="15"/>
-      <c r="G113" s="13" t="s">
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="12"/>
+      <c r="G113" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="14"/>
-      <c r="K113" s="15"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="12"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
@@ -2438,11 +2446,11 @@
       <c r="C118" s="7">
         <v>55</v>
       </c>
-      <c r="D118" s="16">
+      <c r="D118" s="9">
         <f t="shared" si="11"/>
         <v>0.6402439024390244</v>
       </c>
-      <c r="E118" s="16">
+      <c r="E118" s="9">
         <f t="shared" si="12"/>
         <v>1.6768292682926831</v>
       </c>
@@ -2455,12 +2463,12 @@
       <c r="I118" s="7">
         <v>55</v>
       </c>
-      <c r="J118" s="16">
-        <f t="shared" si="13"/>
+      <c r="J118" s="9">
+        <f>H118/$H$119</f>
         <v>0.53164556962025311</v>
       </c>
-      <c r="K118" s="16">
-        <f t="shared" si="13"/>
+      <c r="K118" s="9">
+        <f>I118/$H$119</f>
         <v>1.3924050632911393</v>
       </c>
     </row>
@@ -2468,7 +2476,7 @@
       <c r="A119" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B119" s="16">
+      <c r="B119" s="9">
         <v>32.799999999999997</v>
       </c>
       <c r="C119" s="3"/>
@@ -2477,7 +2485,7 @@
       <c r="G119" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H119" s="16">
+      <c r="H119" s="9">
         <v>39.5</v>
       </c>
       <c r="I119" s="3"/>
@@ -2492,48 +2500,88 @@
       <c r="K120"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121"/>
-      <c r="B121"/>
-      <c r="C121"/>
-      <c r="D121"/>
-      <c r="E121"/>
-      <c r="G121"/>
-      <c r="H121"/>
-      <c r="I121"/>
-      <c r="J121"/>
-      <c r="K121"/>
+      <c r="A121" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B121" s="18">
+        <f>SUM(B115:B117)/3</f>
+        <v>259</v>
+      </c>
+      <c r="C121" s="18">
+        <f t="shared" ref="C121:E121" si="14">SUM(C115:C117)/3</f>
+        <v>460.33333333333331</v>
+      </c>
+      <c r="D121" s="18">
+        <f>SUM(D115:D117)/3</f>
+        <v>7.8963414634146352</v>
+      </c>
+      <c r="E121" s="18">
+        <f t="shared" si="14"/>
+        <v>14.034552845528458</v>
+      </c>
+      <c r="G121" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H121" s="18">
+        <f>SUM(H115:H117)/3</f>
+        <v>259</v>
+      </c>
+      <c r="I121" s="18">
+        <f t="shared" ref="I121:K121" si="15">SUM(I115:I117)/3</f>
+        <v>460.33333333333331</v>
+      </c>
+      <c r="J121" s="18">
+        <f>SUM(J115:J117)/3</f>
+        <v>6.556962025316456</v>
+      </c>
+      <c r="K121" s="18">
+        <f t="shared" si="15"/>
+        <v>11.654008438818565</v>
+      </c>
       <c r="L121"/>
       <c r="M121"/>
       <c r="N121"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122"/>
-      <c r="B122"/>
-      <c r="C122"/>
-      <c r="D122"/>
-      <c r="E122"/>
-      <c r="K122"/>
+      <c r="B122" s="19">
+        <f>B118/$B$119</f>
+        <v>0.6402439024390244</v>
+      </c>
+      <c r="C122" s="19">
+        <f>C118/$B$119</f>
+        <v>1.6768292682926831</v>
+      </c>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="G122"/>
+      <c r="H122" s="19">
+        <f>H118/$H$119</f>
+        <v>0.53164556962025311</v>
+      </c>
+      <c r="I122" s="19">
+        <f t="shared" ref="I122:K122" si="16">I118/$H$119</f>
+        <v>1.3924050632911393</v>
+      </c>
+      <c r="J122" s="19"/>
+      <c r="K122" s="19"/>
       <c r="L122"/>
       <c r="M122"/>
       <c r="N122"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B123" s="7"/>
-      <c r="G123"/>
-      <c r="H123"/>
-      <c r="I123"/>
-      <c r="J123"/>
+      <c r="A123"/>
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
       <c r="K123"/>
       <c r="L123"/>
       <c r="M123"/>
       <c r="N123"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C124" s="5"/>
+      <c r="B124" s="7"/>
       <c r="G124"/>
       <c r="H124"/>
       <c r="I124"/>
@@ -2544,15 +2592,11 @@
       <c r="N124"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="A125" s="5"/>
       <c r="B125" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>55</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C125" s="5"/>
       <c r="G125"/>
       <c r="H125"/>
       <c r="I125"/>
@@ -2563,15 +2607,14 @@
       <c r="N125"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B126" s="3">
-        <v>46</v>
-      </c>
-      <c r="C126" s="3">
-        <f>B126/B127</f>
-        <v>11.5</v>
+      <c r="A126" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="G126"/>
       <c r="H126"/>
@@ -2584,12 +2627,18 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B127" s="3">
-        <v>4</v>
-      </c>
-      <c r="C127" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="C127" s="3">
+        <f>B127/B128</f>
+        <v>11.5</v>
+      </c>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127"/>
       <c r="J127"/>
       <c r="K127"/>
       <c r="L127"/>
@@ -2597,6 +2646,13 @@
       <c r="N127"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B128" s="3">
+        <v>4</v>
+      </c>
+      <c r="C128" s="3"/>
       <c r="J128"/>
       <c r="K128"/>
       <c r="L128"/>
@@ -2617,8 +2673,35 @@
       <c r="M130"/>
       <c r="N130"/>
     </row>
+    <row r="131" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+    </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A98:J98"/>
+    <mergeCell ref="A105:J105"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="A84:J84"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="G113:K113"/>
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="E57:F57"/>
@@ -2635,26 +2718,6 @@
     <mergeCell ref="A56:J56"/>
     <mergeCell ref="E99:F99"/>
     <mergeCell ref="E106:F106"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A98:J98"/>
-    <mergeCell ref="A105:J105"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="A84:J84"/>
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="E78:F78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/validation/percentage_calculations.xlsx
+++ b/validation/percentage_calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoughton\Desktop\Github\saleos\validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bosoro/Documents/GitHub/saleos/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB36FF5-F364-4772-89EB-95D6C7DA391F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465D6306-AD07-0D47-BF65-7468502EB59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
+    <workbookView xWindow="41900" yWindow="2900" windowWidth="38400" windowHeight="21100" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics validation" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="66">
   <si>
     <t>Kuiper</t>
   </si>
@@ -223,6 +223,15 @@
   </si>
   <si>
     <t>Mean_LEO</t>
+  </si>
+  <si>
+    <t>Annual per Subscriber Emissions</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>Total  Emissions Climate Change Worst Case</t>
   </si>
 </sst>
 </file>
@@ -354,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -365,6 +374,20 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -374,21 +397,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -704,41 +712,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2B89D4-AFEF-394A-ABD6-6266674C454B}">
-  <dimension ref="A1:N131"/>
+  <dimension ref="A1:N144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A105" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+      <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="1"/>
-    <col min="5" max="5" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5" style="1"/>
+    <col min="5" max="5" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="1"/>
-    <col min="10" max="10" width="22.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="1"/>
+    <col min="9" max="9" width="11.5" style="1"/>
+    <col min="10" max="10" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -747,20 +755,20 @@
         <v>6</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -778,7 +786,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -801,7 +809,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -822,7 +830,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -855,21 +863,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -878,20 +886,20 @@
         <v>6</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13" t="s">
+      <c r="H9" s="14"/>
+      <c r="I9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -909,7 +917,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -942,7 +950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
@@ -965,21 +973,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
@@ -988,12 +996,12 @@
         <v>6</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1010,7 +1018,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
@@ -1027,7 +1035,7 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>38</v>
       </c>
@@ -1044,7 +1052,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
@@ -1063,33 +1071,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -1101,7 +1109,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -1118,7 +1126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>38</v>
       </c>
@@ -1135,7 +1143,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>1</v>
       </c>
@@ -1152,33 +1160,33 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -1190,7 +1198,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
@@ -1207,7 +1215,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>38</v>
       </c>
@@ -1224,7 +1232,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>1</v>
       </c>
@@ -1241,33 +1249,33 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
@@ -1279,7 +1287,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -1296,7 +1304,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -1313,7 +1321,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
@@ -1330,33 +1338,33 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>2</v>
       </c>
@@ -1368,7 +1376,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>0</v>
       </c>
@@ -1385,7 +1393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>38</v>
       </c>
@@ -1402,7 +1410,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>1</v>
       </c>
@@ -1419,33 +1427,33 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F50" s="14"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
@@ -1457,7 +1465,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>0</v>
       </c>
@@ -1474,7 +1482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>38</v>
       </c>
@@ -1491,7 +1499,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>1</v>
       </c>
@@ -1508,33 +1516,33 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="14" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="13"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F57" s="14"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -1546,7 +1554,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +1571,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>38</v>
       </c>
@@ -1580,7 +1588,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>1</v>
       </c>
@@ -1597,7 +1605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -1609,33 +1617,33 @@
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="14" t="s">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="13" t="s">
+      <c r="E64" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="13"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F64" s="14"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
@@ -1647,7 +1655,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>0</v>
       </c>
@@ -1664,7 +1672,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>38</v>
       </c>
@@ -1681,7 +1689,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>1</v>
       </c>
@@ -1698,37 +1706,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="14" t="s">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
-      <c r="E71" s="13" t="s">
+      <c r="E71" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="13"/>
+      <c r="F71" s="14"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>2</v>
       </c>
@@ -1740,7 +1748,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>0</v>
       </c>
@@ -1757,7 +1765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>38</v>
       </c>
@@ -1774,7 +1782,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>1</v>
       </c>
@@ -1791,37 +1799,37 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="14" t="s">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
-      <c r="E78" s="13" t="s">
+      <c r="E78" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="13"/>
+      <c r="F78" s="14"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>2</v>
       </c>
@@ -1840,7 +1848,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>0</v>
       </c>
@@ -1859,7 +1867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>38</v>
       </c>
@@ -1876,7 +1884,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>1</v>
       </c>
@@ -1893,21 +1901,21 @@
       </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="14" t="s">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5" t="s">
         <v>5</v>
@@ -1921,7 +1929,7 @@
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>2</v>
       </c>
@@ -1940,7 +1948,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>0</v>
       </c>
@@ -1959,7 +1967,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>38</v>
       </c>
@@ -1976,7 +1984,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>1</v>
       </c>
@@ -1993,21 +2001,21 @@
       </c>
       <c r="F89" s="3"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="14" t="s">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="14"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5" t="s">
         <v>5</v>
@@ -2021,7 +2029,7 @@
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>2</v>
       </c>
@@ -2040,7 +2048,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>0</v>
       </c>
@@ -2059,7 +2067,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>38</v>
       </c>
@@ -2076,7 +2084,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>1</v>
       </c>
@@ -2093,40 +2101,40 @@
       </c>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" s="14" t="s">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="15"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
-      <c r="E99" s="13" t="s">
+      <c r="E99" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F99" s="13"/>
+      <c r="F99" s="14"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>2</v>
       </c>
@@ -2142,7 +2150,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>0</v>
       </c>
@@ -2158,7 +2166,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>38</v>
       </c>
@@ -2174,7 +2182,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>1</v>
       </c>
@@ -2190,37 +2198,37 @@
         <v>255</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" s="14" t="s">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="13"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
-      <c r="E106" s="13" t="s">
+      <c r="E106" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F106" s="13"/>
+      <c r="F106" s="14"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>2</v>
       </c>
@@ -2236,7 +2244,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>0</v>
       </c>
@@ -2252,7 +2260,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>38</v>
       </c>
@@ -2268,7 +2276,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>1</v>
       </c>
@@ -2284,23 +2292,23 @@
         <v>319</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A113" s="10" t="s">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="12"/>
-      <c r="G113" s="10" t="s">
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="18"/>
+      <c r="G113" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H113" s="11"/>
-      <c r="I113" s="11"/>
-      <c r="J113" s="11"/>
-      <c r="K113" s="12"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="18"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="5" t="s">
         <v>5</v>
@@ -2328,7 +2336,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>0</v>
       </c>
@@ -2364,7 +2372,7 @@
         <v>15.620253164556962</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>1</v>
       </c>
@@ -2392,7 +2400,7 @@
         <v>391</v>
       </c>
       <c r="J116" s="7">
-        <f t="shared" ref="J116:K118" si="13">H116/$H$119</f>
+        <f t="shared" ref="J116:K117" si="13">H116/$H$119</f>
         <v>6.6835443037974684</v>
       </c>
       <c r="K116" s="7">
@@ -2400,7 +2408,7 @@
         <v>9.8987341772151893</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>2</v>
       </c>
@@ -2436,7 +2444,7 @@
         <v>9.4430379746835449</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>38</v>
       </c>
@@ -2472,7 +2480,7 @@
         <v>1.3924050632911393</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>58</v>
       </c>
@@ -2492,49 +2500,49 @@
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G120"/>
       <c r="H120"/>
       <c r="I120"/>
       <c r="J120"/>
       <c r="K120"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="17" t="s">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B121" s="18">
+      <c r="B121" s="10">
         <f>SUM(B115:B117)/3</f>
         <v>259</v>
       </c>
-      <c r="C121" s="18">
+      <c r="C121" s="10">
         <f t="shared" ref="C121:E121" si="14">SUM(C115:C117)/3</f>
         <v>460.33333333333331</v>
       </c>
-      <c r="D121" s="18">
+      <c r="D121" s="10">
         <f>SUM(D115:D117)/3</f>
         <v>7.8963414634146352</v>
       </c>
-      <c r="E121" s="18">
+      <c r="E121" s="10">
         <f t="shared" si="14"/>
         <v>14.034552845528458</v>
       </c>
-      <c r="G121" s="17" t="s">
+      <c r="G121" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H121" s="18">
+      <c r="H121" s="10">
         <f>SUM(H115:H117)/3</f>
         <v>259</v>
       </c>
-      <c r="I121" s="18">
+      <c r="I121" s="10">
         <f t="shared" ref="I121:K121" si="15">SUM(I115:I117)/3</f>
         <v>460.33333333333331</v>
       </c>
-      <c r="J121" s="18">
+      <c r="J121" s="10">
         <f>SUM(J115:J117)/3</f>
         <v>6.556962025316456</v>
       </c>
-      <c r="K121" s="18">
+      <c r="K121" s="10">
         <f t="shared" si="15"/>
         <v>11.654008438818565</v>
       </c>
@@ -2542,34 +2550,34 @@
       <c r="M121"/>
       <c r="N121"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122"/>
-      <c r="B122" s="19">
+      <c r="B122" s="11">
         <f>B118/$B$119</f>
         <v>0.6402439024390244</v>
       </c>
-      <c r="C122" s="19">
+      <c r="C122" s="11">
         <f>C118/$B$119</f>
         <v>1.6768292682926831</v>
       </c>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
       <c r="G122"/>
-      <c r="H122" s="19">
+      <c r="H122" s="11">
         <f>H118/$H$119</f>
         <v>0.53164556962025311</v>
       </c>
-      <c r="I122" s="19">
-        <f t="shared" ref="I122:K122" si="16">I118/$H$119</f>
+      <c r="I122" s="11">
+        <f t="shared" ref="I122" si="16">I118/$H$119</f>
         <v>1.3924050632911393</v>
       </c>
-      <c r="J122" s="19"/>
-      <c r="K122" s="19"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
       <c r="L122"/>
       <c r="M122"/>
       <c r="N122"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -2580,7 +2588,7 @@
       <c r="M123"/>
       <c r="N123"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B124" s="7"/>
       <c r="G124"/>
       <c r="H124"/>
@@ -2591,7 +2599,7 @@
       <c r="M124"/>
       <c r="N124"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="5" t="s">
         <v>52</v>
@@ -2606,7 +2614,7 @@
       <c r="M125"/>
       <c r="N125"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>54</v>
       </c>
@@ -2625,7 +2633,7 @@
       <c r="M126"/>
       <c r="N126"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>53</v>
       </c>
@@ -2645,7 +2653,7 @@
       <c r="M127"/>
       <c r="N127"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>56</v>
       </c>
@@ -2659,49 +2667,189 @@
       <c r="M128"/>
       <c r="N128"/>
     </row>
-    <row r="129" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J129"/>
       <c r="K129"/>
       <c r="L129"/>
       <c r="M129"/>
       <c r="N129"/>
     </row>
-    <row r="130" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J130"/>
       <c r="K130"/>
       <c r="L130"/>
       <c r="M130"/>
       <c r="N130"/>
     </row>
-    <row r="131" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A131" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
       <c r="J131"/>
       <c r="K131"/>
       <c r="L131"/>
       <c r="M131"/>
       <c r="N131"/>
     </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="3">
+        <v>264.18473999999998</v>
+      </c>
+      <c r="C133" s="3">
+        <v>333.96498000000003</v>
+      </c>
+      <c r="D133" s="3">
+        <f>((C133-B133)/(C133))*100</f>
+        <v>20.894478217446643</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="3">
+        <v>166.04569000000001</v>
+      </c>
+      <c r="C134" s="3">
+        <v>209.90404000000001</v>
+      </c>
+      <c r="D134" s="3">
+        <f t="shared" ref="D134:D136" si="17">((C134-B134)/(C134))*100</f>
+        <v>20.894476352146437</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" s="3">
+        <v>378.37538999999998</v>
+      </c>
+      <c r="C135" s="3">
+        <v>478.31729000000001</v>
+      </c>
+      <c r="D135" s="3">
+        <f t="shared" si="17"/>
+        <v>20.894477805725991</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B136" s="3">
+        <v>18.590779999999999</v>
+      </c>
+      <c r="C136" s="3">
+        <v>23.501239999999999</v>
+      </c>
+      <c r="D136" s="3">
+        <f t="shared" si="17"/>
+        <v>20.894471951267253</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A139" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="C141" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="D141" s="3">
+        <f>((B141-C141)/(B141))*100</f>
+        <v>57.936507936507944</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C142" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D142" s="3">
+        <f t="shared" ref="D142:D144" si="18">((B142-C142)/(B142))*100</f>
+        <v>55.999999999999993</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" s="3">
+        <v>26.8</v>
+      </c>
+      <c r="C143" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="D143" s="3">
+        <f t="shared" si="18"/>
+        <v>58.208955223880601</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B144" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="C144" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D144" s="3">
+        <f t="shared" si="18"/>
+        <v>59.259259259259252</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="A98:J98"/>
-    <mergeCell ref="A105:J105"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="A84:J84"/>
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="E15:F15"/>
+  <mergeCells count="38">
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A139:D139"/>
     <mergeCell ref="G113:K113"/>
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="E57:F57"/>
@@ -2718,6 +2866,26 @@
     <mergeCell ref="A56:J56"/>
     <mergeCell ref="E99:F99"/>
     <mergeCell ref="E106:F106"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A98:J98"/>
+    <mergeCell ref="A105:J105"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="A84:J84"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="E78:F78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/validation/percentage_calculations.xlsx
+++ b/validation/percentage_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bosoro/Documents/GitHub/saleos/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465D6306-AD07-0D47-BF65-7468502EB59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042E62B1-167C-A545-AC76-F8D143BE96FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41900" yWindow="2900" windowWidth="38400" windowHeight="21100" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
+    <workbookView xWindow="41360" yWindow="2300" windowWidth="38400" windowHeight="21100" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics validation" sheetId="2" r:id="rId1"/>
@@ -244,7 +244,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +288,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -363,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -376,16 +382,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -397,6 +394,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -714,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2B89D4-AFEF-394A-ABD6-6266674C454B}">
   <dimension ref="A1:N144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E142" sqref="E142"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -733,18 +740,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
@@ -755,28 +762,28 @@
         <v>6</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="14"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.93859720000000002</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1.7592140999999999</v>
+      <c r="B3" s="19">
+        <v>172.06854000000001</v>
+      </c>
+      <c r="C3" s="19">
+        <v>372.6927</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -790,16 +797,16 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3">
-        <v>1.3784795000000001</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3.0768843000000001</v>
+      <c r="B4" s="19">
+        <v>313.38037000000003</v>
+      </c>
+      <c r="C4" s="19">
+        <v>617.46826999999996</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
         <f>((B6-B4)/B6)*100</f>
-        <v>-18.198237641069355</v>
+        <v>-14.342309925016099</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>9</v>
@@ -813,16 +820,16 @@
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.28183930000000001</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.73638769999999998</v>
+      <c r="B5" s="19">
+        <v>21.175229999999999</v>
+      </c>
+      <c r="C5" s="19">
+        <v>55.326479999999997</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
         <f>((B6-B5)/B6)*100</f>
-        <v>75.833584352910123</v>
+        <v>92.273846918383882</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -834,48 +841,48 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <v>1.1662437000000001</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.7244889999999999</v>
+      <c r="B6" s="19">
+        <v>274.07209999999998</v>
+      </c>
+      <c r="C6" s="19">
+        <v>418.35746</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
         <f>((B6-B3)/B6)*100</f>
-        <v>19.519633846682307</v>
+        <v>37.217783203762792</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="7">
         <f>((C6-C3)/C6)*100</f>
-        <v>-2.0136457814459794</v>
+        <v>10.915249365936967</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="3">
         <f>((C4-C6)/C4)*100</f>
-        <v>43.953401172738282</v>
+        <v>32.246322551926426</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -886,25 +893,25 @@
         <v>6</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14" t="s">
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="14"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="3">
-        <v>3.2850000000000001</v>
+        <v>2.843</v>
       </c>
       <c r="C10" s="3">
         <v>6.2</v>
@@ -922,29 +929,29 @@
         <v>0</v>
       </c>
       <c r="B11" s="3">
-        <v>1.2346999999999999</v>
+        <v>3.359</v>
       </c>
       <c r="C11" s="3">
-        <v>1.8</v>
+        <v>6.9</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
         <f>((B10-B11)/B10)*100</f>
-        <v>62.414003044140031</v>
+        <v>-18.14984171649666</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="3">
         <f>((B11-B12)/B11)*100</f>
-        <v>36.016846197456864</v>
+        <v>71.211670139922589</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="3">
         <f>((C11-C10)/C11)*100</f>
-        <v>-244.44444444444446</v>
+        <v>10.144927536231886</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>17</v>
@@ -955,10 +962,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>0.79</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -967,25 +974,25 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3">
         <f>((C11-C12)/C11)*100</f>
-        <v>44.44444444444445</v>
+        <v>78.260869565217391</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
@@ -996,10 +1003,10 @@
         <v>6</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -1014,7 +1021,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3">
         <f>B16/B17</f>
-        <v>5.8</v>
+        <v>0.41626794258373206</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -1023,15 +1030,15 @@
         <v>0</v>
       </c>
       <c r="B17" s="3">
-        <v>0.15</v>
+        <v>2.09</v>
       </c>
       <c r="C17" s="3">
-        <v>0.67</v>
+        <v>5.81</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3">
         <f>B17/B18</f>
-        <v>2.9999999999999996</v>
+        <v>2.5180722891566263</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -1040,15 +1047,15 @@
         <v>38</v>
       </c>
       <c r="B18" s="3">
-        <v>0.05</v>
+        <v>0.83</v>
       </c>
       <c r="C18" s="3">
-        <v>0.22</v>
+        <v>2.12</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3">
         <f>B17/B18</f>
-        <v>2.9999999999999996</v>
+        <v>2.5180722891566263</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -1057,33 +1064,33 @@
         <v>1</v>
       </c>
       <c r="B19" s="3">
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
       <c r="C19" s="3">
-        <v>0.19</v>
+        <v>0.77</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3">
         <f>B17/B19</f>
-        <v>3.75</v>
+        <v>8.36</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
@@ -1092,10 +1099,10 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -1161,18 +1168,18 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
@@ -1181,10 +1188,10 @@
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="14"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
@@ -1250,18 +1257,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
@@ -1270,10 +1277,10 @@
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="14"/>
+      <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
@@ -1339,18 +1346,18 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
@@ -1359,10 +1366,10 @@
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="14"/>
+      <c r="F43" s="12"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
@@ -1428,18 +1435,18 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
@@ -1448,17 +1455,17 @@
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="14"/>
+      <c r="F50" s="12"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="3">
-        <v>121.47058819999999</v>
+      <c r="B51" s="19">
+        <v>1.0240000000000001E-2</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1469,14 +1476,14 @@
       <c r="A52" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="3">
-        <v>63.450980399999999</v>
+      <c r="B52" s="19">
+        <v>7.3200000000000001E-3</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3">
         <f>((B$51-B52)/B$51)*100</f>
-        <v>47.764326047776557</v>
+        <v>28.515625000000007</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>22</v>
@@ -1486,14 +1493,14 @@
       <c r="A53" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="3">
-        <v>0.37254900000000002</v>
+      <c r="B53" s="19">
+        <v>7.3200000000000001E-3</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3">
         <f t="shared" ref="E53:E54" si="4">((B$51-B53)/B$51)*100</f>
-        <v>99.693301065286192</v>
+        <v>28.515625000000007</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>40</v>
@@ -1503,32 +1510,32 @@
       <c r="A54" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="3">
-        <v>4.5176470999999996</v>
+      <c r="B54" s="19">
+        <v>2.3400000000000001E-3</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3">
         <f t="shared" si="4"/>
-        <v>96.280871635723258</v>
+        <v>77.1484375</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
@@ -1537,10 +1544,10 @@
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="14"/>
+      <c r="F57" s="12"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -1618,18 +1625,18 @@
       <c r="J62" s="6"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
@@ -1638,10 +1645,10 @@
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="14"/>
+      <c r="F64" s="12"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
@@ -1707,18 +1714,18 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
@@ -1727,10 +1734,10 @@
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="14"/>
+      <c r="F71" s="12"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
@@ -1800,18 +1807,18 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
@@ -1820,10 +1827,10 @@
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
-      <c r="E78" s="14" t="s">
+      <c r="E78" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="14"/>
+      <c r="F78" s="12"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
@@ -1902,18 +1909,18 @@
       <c r="F82" s="3"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
@@ -2002,18 +2009,18 @@
       <c r="F89" s="3"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
@@ -2105,18 +2112,18 @@
       <c r="A97" s="2"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="12" t="s">
+      <c r="A98" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
-      <c r="J98" s="13"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
@@ -2125,10 +2132,10 @@
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
-      <c r="E99" s="14" t="s">
+      <c r="E99" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F99" s="14"/>
+      <c r="F99" s="12"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
@@ -2199,18 +2206,18 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="12" t="s">
+      <c r="A105" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B105" s="13"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="13"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
@@ -2219,10 +2226,10 @@
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
-      <c r="E106" s="14" t="s">
+      <c r="E106" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F106" s="14"/>
+      <c r="F106" s="12"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
@@ -2233,7 +2240,7 @@
         <v>2</v>
       </c>
       <c r="B107" s="3">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -2241,7 +2248,7 @@
         <v>2</v>
       </c>
       <c r="F107" s="3">
-        <v>326</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
@@ -2249,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="B108" s="3">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -2257,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="F108" s="3">
-        <v>424</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
@@ -2265,7 +2272,7 @@
         <v>38</v>
       </c>
       <c r="B109" s="3">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -2273,7 +2280,7 @@
         <v>38</v>
       </c>
       <c r="F109" s="3">
-        <v>136</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
@@ -2281,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="B110" s="3">
-        <v>216</v>
+        <v>45</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -2289,24 +2296,24 @@
         <v>1</v>
       </c>
       <c r="F110" s="3">
-        <v>319</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A113" s="16" t="s">
+      <c r="A113" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B113" s="17"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="18"/>
-      <c r="G113" s="16" t="s">
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="15"/>
+      <c r="G113" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H113" s="17"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="18"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
+      <c r="J113" s="14"/>
+      <c r="K113" s="15"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
@@ -2341,14 +2348,14 @@
         <v>0</v>
       </c>
       <c r="B115" s="7">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C115" s="7">
         <v>617</v>
       </c>
       <c r="D115" s="7">
         <f>B115/$B$119</f>
-        <v>9.573170731707318</v>
+        <v>9.5426829268292686</v>
       </c>
       <c r="E115" s="7">
         <f>C115/$B$119</f>
@@ -2358,14 +2365,14 @@
         <v>0</v>
       </c>
       <c r="H115" s="7">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I115" s="7">
         <v>617</v>
       </c>
       <c r="J115" s="7">
         <f>H115/$H$119</f>
-        <v>7.9493670886075947</v>
+        <v>7.924050632911392</v>
       </c>
       <c r="K115" s="7">
         <f>I115/$H$119</f>
@@ -2377,35 +2384,35 @@
         <v>1</v>
       </c>
       <c r="B116" s="7">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C116" s="7">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="D116" s="7">
         <f t="shared" ref="D116:D118" si="11">B116/$B$119</f>
-        <v>8.0487804878048781</v>
+        <v>8.3536585365853657</v>
       </c>
       <c r="E116" s="7">
         <f t="shared" ref="E116:E118" si="12">C116/$B$119</f>
-        <v>11.920731707317074</v>
+        <v>12.74390243902439</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H116" s="7">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="I116" s="7">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="J116" s="7">
         <f t="shared" ref="J116:K117" si="13">H116/$H$119</f>
-        <v>6.6835443037974684</v>
+        <v>6.9367088607594933</v>
       </c>
       <c r="K116" s="7">
         <f t="shared" si="13"/>
-        <v>9.8987341772151893</v>
+        <v>10.582278481012658</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
@@ -2413,14 +2420,14 @@
         <v>2</v>
       </c>
       <c r="B117" s="7">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="C117" s="7">
         <v>373</v>
       </c>
       <c r="D117" s="7">
         <f t="shared" si="11"/>
-        <v>6.0670731707317076</v>
+        <v>5.2439024390243905</v>
       </c>
       <c r="E117" s="7">
         <f t="shared" si="12"/>
@@ -2430,14 +2437,14 @@
         <v>2</v>
       </c>
       <c r="H117" s="7">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="I117" s="7">
         <v>373</v>
       </c>
       <c r="J117" s="7">
         <f t="shared" si="13"/>
-        <v>5.037974683544304</v>
+        <v>4.3544303797468356</v>
       </c>
       <c r="K117" s="7">
         <f t="shared" si="13"/>
@@ -2513,38 +2520,38 @@
       </c>
       <c r="B121" s="10">
         <f>SUM(B115:B117)/3</f>
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C121" s="10">
         <f t="shared" ref="C121:E121" si="14">SUM(C115:C117)/3</f>
-        <v>460.33333333333331</v>
+        <v>469.33333333333331</v>
       </c>
       <c r="D121" s="10">
         <f>SUM(D115:D117)/3</f>
-        <v>7.8963414634146352</v>
+        <v>7.7134146341463419</v>
       </c>
       <c r="E121" s="10">
         <f t="shared" si="14"/>
-        <v>14.034552845528458</v>
+        <v>14.308943089430896</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H121" s="10">
         <f>SUM(H115:H117)/3</f>
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="I121" s="10">
         <f t="shared" ref="I121:K121" si="15">SUM(I115:I117)/3</f>
-        <v>460.33333333333331</v>
+        <v>469.33333333333331</v>
       </c>
       <c r="J121" s="10">
         <f>SUM(J115:J117)/3</f>
-        <v>6.556962025316456</v>
+        <v>6.40506329113924</v>
       </c>
       <c r="K121" s="10">
         <f t="shared" si="15"/>
-        <v>11.654008438818565</v>
+        <v>11.881856540084391</v>
       </c>
       <c r="L121"/>
       <c r="M121"/>
@@ -2638,11 +2645,11 @@
         <v>53</v>
       </c>
       <c r="B127" s="3">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C127" s="3">
         <f>B127/B128</f>
-        <v>11.5</v>
+        <v>12.75</v>
       </c>
       <c r="G127"/>
       <c r="H127"/>
@@ -2682,12 +2689,12 @@
       <c r="N130"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
       <c r="J131"/>
       <c r="K131"/>
       <c r="L131"/>
@@ -2710,15 +2717,15 @@
       <c r="A133" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="19">
         <v>264.18473999999998</v>
       </c>
-      <c r="C133" s="3">
-        <v>333.96498000000003</v>
+      <c r="C133" s="19">
+        <v>319.83366999999998</v>
       </c>
       <c r="D133" s="3">
         <f>((C133-B133)/(C133))*100</f>
-        <v>20.894478217446643</v>
+        <v>17.399334472821455</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -2728,12 +2735,12 @@
       <c r="B134" s="3">
         <v>166.04569000000001</v>
       </c>
-      <c r="C134" s="3">
-        <v>209.90404000000001</v>
+      <c r="C134" s="19">
+        <v>201.02222</v>
       </c>
       <c r="D134" s="3">
         <f t="shared" ref="D134:D136" si="17">((C134-B134)/(C134))*100</f>
-        <v>20.894476352146437</v>
+        <v>17.399335257565056</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -2746,33 +2753,32 @@
       <c r="C135" s="3">
         <v>478.31729000000001</v>
       </c>
-      <c r="D135" s="3">
-        <f t="shared" si="17"/>
-        <v>20.894477805725991</v>
+      <c r="D135" s="19">
+        <v>458.0779</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="19">
         <v>18.590779999999999</v>
       </c>
-      <c r="C136" s="3">
-        <v>23.501239999999999</v>
+      <c r="C136" s="19">
+        <v>22.506810000000002</v>
       </c>
       <c r="D136" s="3">
         <f t="shared" si="17"/>
-        <v>20.894471951267253</v>
+        <v>17.399311586137717</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A139" s="14" t="s">
+      <c r="A139" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
@@ -2848,36 +2854,37 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="E36:F36"/>
     <mergeCell ref="A131:D131"/>
     <mergeCell ref="A139:D139"/>
     <mergeCell ref="G113:K113"/>
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="A56:J56"/>
     <mergeCell ref="E99:F99"/>
     <mergeCell ref="E106:F106"/>
     <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
     <mergeCell ref="A98:J98"/>
     <mergeCell ref="A105:J105"/>
     <mergeCell ref="A70:J70"/>
@@ -2885,7 +2892,6 @@
     <mergeCell ref="A77:J77"/>
     <mergeCell ref="A84:J84"/>
     <mergeCell ref="A91:J91"/>
-    <mergeCell ref="E78:F78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/validation/percentage_calculations.xlsx
+++ b/validation/percentage_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoughton\Desktop\Github\saleos\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332A3C72-E7D1-4438-8ACF-208647FC0FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5C3A19-C8FE-448E-B29B-78314179BF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3936" yWindow="1512" windowWidth="23040" windowHeight="12204" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
+    <workbookView xWindow="6096" yWindow="1692" windowWidth="23040" windowHeight="13104" xr2:uid="{EB3D0C3D-6F70-4465-B047-BE373A053C5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics validation" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="87">
   <si>
     <t>Kuiper</t>
   </si>
@@ -271,6 +271,30 @@
   </si>
   <si>
     <t>LEO sum</t>
+  </si>
+  <si>
+    <t>Vehicles</t>
+  </si>
+  <si>
+    <t>Constellation</t>
+  </si>
+  <si>
+    <t>Annual Mt</t>
+  </si>
+  <si>
+    <t>WC Annual Mt</t>
+  </si>
+  <si>
+    <t>Vehicles WC</t>
+  </si>
+  <si>
+    <t>Homes</t>
+  </si>
+  <si>
+    <t>Homes WC</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -419,7 +443,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -473,6 +497,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -481,9 +517,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -494,15 +527,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -819,17 +845,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2B89D4-AFEF-394A-ABD6-6266674C454B}">
-  <dimension ref="A1:N150"/>
+  <dimension ref="A1:N177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B29"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H162" sqref="H162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="1"/>
+    <col min="3" max="3" width="40.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="1"/>
     <col min="5" max="5" width="14.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -843,18 +870,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -865,18 +892,18 @@
         <v>6</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="36"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -974,18 +1001,18 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
@@ -996,18 +1023,18 @@
         <v>6</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36" t="s">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36" t="s">
+      <c r="H9" s="35"/>
+      <c r="I9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="36"/>
+      <c r="J9" s="35"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -1096,18 +1123,18 @@
       <c r="J13" s="24"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
@@ -1459,18 +1486,18 @@
       <c r="F32" s="24"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
@@ -1479,10 +1506,10 @@
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="36"/>
+      <c r="F35" s="35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
@@ -1548,18 +1575,18 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
@@ -1568,10 +1595,10 @@
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="36"/>
+      <c r="F42" s="35"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
@@ -1637,18 +1664,18 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
@@ -1657,10 +1684,10 @@
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="36" t="s">
+      <c r="E49" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="36"/>
+      <c r="F49" s="35"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
@@ -1726,18 +1753,18 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
@@ -1746,10 +1773,10 @@
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F56" s="36"/>
+      <c r="F56" s="35"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
@@ -1815,18 +1842,18 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="40" t="s">
+      <c r="A62" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="40"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
@@ -1835,10 +1862,10 @@
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="36" t="s">
+      <c r="E63" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="36"/>
+      <c r="F63" s="35"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
@@ -1916,18 +1943,18 @@
       <c r="J68" s="6"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="40" t="s">
+      <c r="A69" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="40"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="40"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="40"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
@@ -1936,10 +1963,10 @@
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="36" t="s">
+      <c r="E70" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="36"/>
+      <c r="F70" s="35"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
@@ -2005,18 +2032,18 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="40" t="s">
+      <c r="A76" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B76" s="41"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="34"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
@@ -2025,10 +2052,10 @@
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
-      <c r="E77" s="36" t="s">
+      <c r="E77" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F77" s="36"/>
+      <c r="F77" s="35"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
@@ -2098,18 +2125,18 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="40"/>
-      <c r="G83" s="40"/>
-      <c r="H83" s="40"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="40"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="33"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
@@ -2118,10 +2145,10 @@
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="36" t="s">
+      <c r="E84" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F84" s="36"/>
+      <c r="F84" s="35"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
@@ -2200,18 +2227,18 @@
       <c r="F88" s="3"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="40" t="s">
+      <c r="A90" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B90" s="40"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="40"/>
-      <c r="F90" s="40"/>
-      <c r="G90" s="40"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="40"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="33"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
@@ -2300,18 +2327,18 @@
       <c r="F95" s="3"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" s="40" t="s">
+      <c r="A97" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B97" s="40"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="40"/>
-      <c r="F97" s="40"/>
-      <c r="G97" s="40"/>
-      <c r="H97" s="40"/>
-      <c r="I97" s="40"/>
-      <c r="J97" s="40"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="33"/>
+      <c r="J97" s="33"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
@@ -2403,18 +2430,18 @@
       <c r="A103" s="2"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" s="40" t="s">
+      <c r="A104" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B104" s="41"/>
-      <c r="C104" s="41"/>
-      <c r="D104" s="41"/>
-      <c r="E104" s="41"/>
-      <c r="F104" s="41"/>
-      <c r="G104" s="41"/>
-      <c r="H104" s="41"/>
-      <c r="I104" s="41"/>
-      <c r="J104" s="41"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="34"/>
+      <c r="F104" s="34"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="34"/>
+      <c r="I104" s="34"/>
+      <c r="J104" s="34"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
@@ -2423,10 +2450,10 @@
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
-      <c r="E105" s="36" t="s">
+      <c r="E105" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F105" s="36"/>
+      <c r="F105" s="35"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
@@ -2497,18 +2524,18 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" s="40" t="s">
+      <c r="A111" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B111" s="41"/>
-      <c r="C111" s="41"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="41"/>
-      <c r="F111" s="41"/>
-      <c r="G111" s="41"/>
-      <c r="H111" s="41"/>
-      <c r="I111" s="41"/>
-      <c r="J111" s="41"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="34"/>
+      <c r="E111" s="34"/>
+      <c r="F111" s="34"/>
+      <c r="G111" s="34"/>
+      <c r="H111" s="34"/>
+      <c r="I111" s="34"/>
+      <c r="J111" s="34"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
@@ -2517,10 +2544,10 @@
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
-      <c r="E112" s="36" t="s">
+      <c r="E112" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F112" s="36"/>
+      <c r="F112" s="35"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
@@ -2591,20 +2618,20 @@
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A119" s="37" t="s">
+      <c r="A119" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B119" s="38"/>
-      <c r="C119" s="38"/>
-      <c r="D119" s="38"/>
-      <c r="E119" s="39"/>
-      <c r="G119" s="37" t="s">
+      <c r="B119" s="41"/>
+      <c r="C119" s="41"/>
+      <c r="D119" s="41"/>
+      <c r="E119" s="42"/>
+      <c r="G119" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="H119" s="38"/>
-      <c r="I119" s="38"/>
-      <c r="J119" s="38"/>
-      <c r="K119" s="39"/>
+      <c r="H119" s="41"/>
+      <c r="I119" s="41"/>
+      <c r="J119" s="41"/>
+      <c r="K119" s="42"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
@@ -2639,14 +2666,14 @@
         <v>0</v>
       </c>
       <c r="B121" s="7">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C121" s="7">
         <v>617</v>
       </c>
       <c r="D121" s="7">
         <f>B121/$B$125</f>
-        <v>9.5426829268292686</v>
+        <v>9.2378048780487809</v>
       </c>
       <c r="E121" s="7">
         <f>C121/$B$125</f>
@@ -2656,14 +2683,14 @@
         <v>0</v>
       </c>
       <c r="H121" s="7">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="I121" s="7">
         <v>617</v>
       </c>
       <c r="J121" s="7">
         <f>H121/$H$125</f>
-        <v>7.924050632911392</v>
+        <v>7.6708860759493671</v>
       </c>
       <c r="K121" s="7">
         <f>I121/$H$125</f>
@@ -2811,7 +2838,7 @@
       </c>
       <c r="B127" s="10">
         <f>SUM(B121:B123)/3</f>
-        <v>253</v>
+        <v>249.66666666666666</v>
       </c>
       <c r="C127" s="10">
         <f t="shared" ref="C127" si="14">SUM(C121:C123)/3</f>
@@ -2819,7 +2846,7 @@
       </c>
       <c r="D127" s="10">
         <f>SUM(D121:D123)/3</f>
-        <v>7.7134146341463419</v>
+        <v>7.6117886178861793</v>
       </c>
       <c r="E127" s="10">
         <f>SUM(E121:E123)/3</f>
@@ -2830,7 +2857,7 @@
       </c>
       <c r="H127" s="10">
         <f>SUM(H121:H123)/3</f>
-        <v>253</v>
+        <v>249.66666666666666</v>
       </c>
       <c r="I127" s="10">
         <f t="shared" ref="I127:K127" si="15">SUM(I121:I123)/3</f>
@@ -2838,7 +2865,7 @@
       </c>
       <c r="J127" s="10">
         <f>SUM(J121:J123)/3</f>
-        <v>6.40506329113924</v>
+        <v>6.3206751054852317</v>
       </c>
       <c r="K127" s="10">
         <f t="shared" si="15"/>
@@ -2854,7 +2881,7 @@
       </c>
       <c r="B128" s="13">
         <f>B127/B124</f>
-        <v>12.047619047619047</v>
+        <v>11.888888888888889</v>
       </c>
       <c r="C128" s="13">
         <f>C127/C124</f>
@@ -2867,7 +2894,7 @@
       </c>
       <c r="H128" s="13">
         <f>H127/H124</f>
-        <v>12.047619047619047</v>
+        <v>11.888888888888889</v>
       </c>
       <c r="I128" s="13">
         <f>I127/I124</f>
@@ -2984,12 +3011,12 @@
       <c r="N136"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A137" s="33" t="s">
+      <c r="A137" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B137" s="34"/>
-      <c r="C137" s="34"/>
-      <c r="D137" s="35"/>
+      <c r="B137" s="38"/>
+      <c r="C137" s="38"/>
+      <c r="D137" s="39"/>
       <c r="J137"/>
       <c r="K137"/>
       <c r="L137"/>
@@ -3067,15 +3094,15 @@
         <v>17.399311586137717</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="36" t="s">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B145" s="36"/>
-      <c r="C145" s="36"/>
-      <c r="D145" s="36"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B145" s="35"/>
+      <c r="C145" s="35"/>
+      <c r="D145" s="35"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="5" t="s">
         <v>52</v>
@@ -3087,7 +3114,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>0</v>
       </c>
@@ -3102,7 +3129,7 @@
         <v>57.936507936507944</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>1</v>
       </c>
@@ -3117,7 +3144,7 @@
         <v>55.999999999999993</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>2</v>
       </c>
@@ -3132,7 +3159,7 @@
         <v>58.208955223880601</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>37</v>
       </c>
@@ -3147,9 +3174,438 @@
         <v>59.259259259259252</v>
       </c>
     </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C153" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="D153" s="3">
+        <v>85</v>
+      </c>
+      <c r="E153" s="3">
+        <v>173</v>
+      </c>
+      <c r="F153" s="15">
+        <f>B153/C153*100</f>
+        <v>50</v>
+      </c>
+      <c r="G153" s="15">
+        <f>D153/E153*100</f>
+        <v>49.132947976878611</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C154" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D154" s="3">
+        <v>24</v>
+      </c>
+      <c r="E154" s="3">
+        <v>37</v>
+      </c>
+      <c r="F154" s="15">
+        <f>B154/C154*100</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="G154" s="15">
+        <f>D154/E154*100</f>
+        <v>64.86486486486487</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B155" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C155" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B156" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C156" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3">
+        <v>46</v>
+      </c>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F158" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G158" s="43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="D159" s="3">
+        <v>150</v>
+      </c>
+      <c r="E159" s="3">
+        <v>305</v>
+      </c>
+      <c r="F159" s="15">
+        <f>B159/C159*100</f>
+        <v>50</v>
+      </c>
+      <c r="G159" s="15">
+        <f>D159/E159*100</f>
+        <v>49.180327868852459</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C160" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D160" s="3">
+        <v>43</v>
+      </c>
+      <c r="E160" s="3">
+        <v>66</v>
+      </c>
+      <c r="F160" s="15">
+        <f>B160/C160*100</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="G160" s="15">
+        <f>D160/E160*100</f>
+        <v>65.151515151515156</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B161" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="44"/>
+      <c r="G161" s="44"/>
+      <c r="H161"/>
+      <c r="I161"/>
+      <c r="J161"/>
+      <c r="K161"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B162" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C162" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3">
+        <v>82</v>
+      </c>
+      <c r="F162" s="44"/>
+      <c r="G162" s="44"/>
+      <c r="H162"/>
+      <c r="I162"/>
+      <c r="J162"/>
+      <c r="K162"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163"/>
+      <c r="B163"/>
+      <c r="C163"/>
+      <c r="D163"/>
+      <c r="E163"/>
+      <c r="F163"/>
+      <c r="G163"/>
+      <c r="H163"/>
+      <c r="I163"/>
+      <c r="J163"/>
+      <c r="K163"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164"/>
+      <c r="B164"/>
+      <c r="C164"/>
+      <c r="D164"/>
+      <c r="E164"/>
+      <c r="F164"/>
+      <c r="G164"/>
+      <c r="H164"/>
+      <c r="I164"/>
+      <c r="J164"/>
+      <c r="K164"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165"/>
+      <c r="B165"/>
+      <c r="C165"/>
+      <c r="D165"/>
+      <c r="E165"/>
+      <c r="F165"/>
+      <c r="G165"/>
+      <c r="H165"/>
+      <c r="I165"/>
+      <c r="J165"/>
+      <c r="K165"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166"/>
+      <c r="B166"/>
+      <c r="C166"/>
+      <c r="D166"/>
+      <c r="E166"/>
+      <c r="F166"/>
+      <c r="G166"/>
+      <c r="H166"/>
+      <c r="I166"/>
+      <c r="J166"/>
+      <c r="K166"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167"/>
+      <c r="B167"/>
+      <c r="C167"/>
+      <c r="D167"/>
+      <c r="E167"/>
+      <c r="F167"/>
+      <c r="G167"/>
+      <c r="H167"/>
+      <c r="I167"/>
+      <c r="J167"/>
+      <c r="K167"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168"/>
+      <c r="B168"/>
+      <c r="C168"/>
+      <c r="D168"/>
+      <c r="E168"/>
+      <c r="F168"/>
+      <c r="G168"/>
+      <c r="H168"/>
+      <c r="I168"/>
+      <c r="J168"/>
+      <c r="K168"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169"/>
+      <c r="B169"/>
+      <c r="C169"/>
+      <c r="D169"/>
+      <c r="E169"/>
+      <c r="F169"/>
+      <c r="G169"/>
+      <c r="H169"/>
+      <c r="I169"/>
+      <c r="J169"/>
+      <c r="K169"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170"/>
+      <c r="B170"/>
+      <c r="C170"/>
+      <c r="D170"/>
+      <c r="E170"/>
+      <c r="F170"/>
+      <c r="G170"/>
+      <c r="H170"/>
+      <c r="I170"/>
+      <c r="J170"/>
+      <c r="K170"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171"/>
+      <c r="B171"/>
+      <c r="C171"/>
+      <c r="D171"/>
+      <c r="E171"/>
+      <c r="F171"/>
+      <c r="G171"/>
+      <c r="H171"/>
+      <c r="I171"/>
+      <c r="J171"/>
+      <c r="K171"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172"/>
+      <c r="B172"/>
+      <c r="C172"/>
+      <c r="D172"/>
+      <c r="E172"/>
+      <c r="F172"/>
+      <c r="G172"/>
+      <c r="H172"/>
+      <c r="I172"/>
+      <c r="J172"/>
+      <c r="K172"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173"/>
+      <c r="B173"/>
+      <c r="C173"/>
+      <c r="D173"/>
+      <c r="E173"/>
+      <c r="F173"/>
+      <c r="G173"/>
+      <c r="H173"/>
+      <c r="I173"/>
+      <c r="J173"/>
+      <c r="K173"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B174"/>
+      <c r="C174"/>
+      <c r="D174"/>
+      <c r="E174"/>
+      <c r="F174"/>
+      <c r="G174"/>
+      <c r="H174"/>
+      <c r="I174"/>
+      <c r="J174"/>
+      <c r="K174"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B175"/>
+      <c r="C175"/>
+      <c r="D175"/>
+      <c r="E175"/>
+      <c r="F175"/>
+      <c r="G175"/>
+      <c r="H175"/>
+      <c r="I175"/>
+      <c r="J175"/>
+      <c r="K175"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B176"/>
+      <c r="C176"/>
+      <c r="D176"/>
+      <c r="E176"/>
+      <c r="F176"/>
+      <c r="G176"/>
+      <c r="H176"/>
+      <c r="I176"/>
+      <c r="J176"/>
+      <c r="K176"/>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B177"/>
+      <c r="C177"/>
+      <c r="D177"/>
+      <c r="E177"/>
+      <c r="F177"/>
+      <c r="G177"/>
+      <c r="H177"/>
+      <c r="I177"/>
+      <c r="J177"/>
+      <c r="K177"/>
+    </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A97:J97"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="G119:K119"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A104:J104"/>
+    <mergeCell ref="A111:J111"/>
+    <mergeCell ref="A76:J76"/>
+    <mergeCell ref="E77:F77"/>
     <mergeCell ref="E84:F84"/>
+    <mergeCell ref="A83:J83"/>
+    <mergeCell ref="A90:J90"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="E9:F9"/>
@@ -3163,27 +3619,7 @@
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="A55:J55"/>
     <mergeCell ref="E56:F56"/>
-    <mergeCell ref="A62:J62"/>
     <mergeCell ref="A34:J34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="G119:K119"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A104:J104"/>
-    <mergeCell ref="A111:J111"/>
-    <mergeCell ref="A76:J76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="A83:J83"/>
-    <mergeCell ref="A90:J90"/>
-    <mergeCell ref="A97:J97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
